--- a/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
@@ -5,57 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS PLANETA. FERNANDA\ESCALETAS\ESCALETA_MA_09_01_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion01\ESCALETA_MA_09_01_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7335" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="7035" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>usuario</author>
-  </authors>
-  <commentList>
-    <comment ref="D27" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>usuario:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Este es un nuevo aspartado propuesto en la tabla de contenido.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="352">
   <si>
     <t>Asignatura</t>
   </si>
@@ -279,39 +245,6 @@
     <t>f13b</t>
   </si>
   <si>
-    <t>CONSOLIDACIÓN Y COMPETENCIAS</t>
-  </si>
-  <si>
-    <t>UN COLOR PARA CADA UNA</t>
-  </si>
-  <si>
-    <t>UN SUBRAYADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAS ACTIVIDADES SE PONENE EN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL ORDEN EN QUE VAN A QUEDAR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR ESO TENER EN CUENTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EL LUGAR DE MAPA Y DE EVALUACIÓN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fuente es la ruta de cuando es aprovechada </t>
-  </si>
-  <si>
-    <t>F1 NO</t>
-  </si>
-  <si>
-    <t>PUEDE REEMPLAZARSE POR F4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUENTE CORRESPONDE A LO QUE ESTÁ EN EL EXCEL DE RECURSOS DE ESPAÑA </t>
-  </si>
-  <si>
     <t xml:space="preserve">TIPOLOGÍA: </t>
   </si>
   <si>
@@ -327,12 +260,6 @@
     <t xml:space="preserve">LENGUAJE </t>
   </si>
   <si>
-    <t xml:space="preserve">NUEVO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">APROVECHADO </t>
-  </si>
-  <si>
     <t xml:space="preserve">TIPO MEDIA </t>
   </si>
   <si>
@@ -696,10 +623,6 @@
     <t>Comentarios/Indicaciones</t>
   </si>
   <si>
-    <t>Cuaderno de estudio
-Si/No</t>
-  </si>
-  <si>
     <t>Proceso que refuerza</t>
   </si>
   <si>
@@ -718,409 +641,350 @@
     <t>RAZONAMIENTO</t>
   </si>
   <si>
-    <t xml:space="preserve">Sección CE
+    <t>(según propuesta Estándares)</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Desempeños</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (según Derechos básicos de aprendizaje, MEN)</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>Consolidación</t>
+  </si>
+  <si>
+    <t>Fin de tema</t>
+  </si>
+  <si>
+    <t>Competencias</t>
+  </si>
+  <si>
+    <t>MA_09_01_CO</t>
+  </si>
+  <si>
+    <t>Los números reales</t>
+  </si>
+  <si>
+    <t>Los conjuntos numéricos</t>
+  </si>
+  <si>
+    <t>Practica la conversión de una fracción a número decimal</t>
+  </si>
+  <si>
+    <t>Actividad de ejercitación que sirve para expresar fracciones como números decimales</t>
+  </si>
+  <si>
+    <t>Practica la conversión de un número decimal a fracción</t>
+  </si>
+  <si>
+    <t>Actividad para practicar la conversión de un número racional representado como número decimal a fracción</t>
+  </si>
+  <si>
+    <t>Resuelve situaciones que involucran números racionales</t>
+  </si>
+  <si>
+    <t>Actividad para resolver situaciones relacionadas con números racionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para resolver situaciones relacionadas con números irracionales  </t>
+  </si>
+  <si>
+    <t>4º ESO</t>
+  </si>
+  <si>
+    <t>MT_10_13</t>
+  </si>
+  <si>
+    <t>Practica con los números reales y sus subconjuntos</t>
+  </si>
+  <si>
+    <t>Actividad que permite ejercitar la definición de algunos conjuntos numéricos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para comprender propiedades de los números reales </t>
+  </si>
+  <si>
+    <t>¿Qué sabes de los números reales?</t>
+  </si>
+  <si>
+    <t>Interactivo que explica los conceptos de aproximación, error absoluto y error relativo en una aproximación</t>
+  </si>
+  <si>
+    <t>Aproximación, error absoluto y error relativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcula el error absoluto y el error relativo </t>
+  </si>
+  <si>
+    <t>Actividad para practicar aproximaciones de números reales  con sus errores absolutos y sus errores relativos</t>
+  </si>
+  <si>
+    <t>Calcula el error absoluto y el error relativo</t>
+  </si>
+  <si>
+    <t>La recta real y el axioma de completitud</t>
+  </si>
+  <si>
+    <t>Interactivo que explica la relación entre los números reales como puntos de la recta real y la relación de orden</t>
+  </si>
+  <si>
+    <t>Interactivo que explica qué es un intervalo de números reales y los tipos de intervalos en la recta real</t>
+  </si>
+  <si>
+    <t>Intervalos</t>
+  </si>
+  <si>
+    <t>Practica la representación de intervalos</t>
+  </si>
+  <si>
+    <t>Actividades para practicar intervalos de números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practica las operaciones con números reales </t>
+  </si>
+  <si>
+    <t>Actividad para practicar operaciones con números reales representados como decimales, fraccionarios y radicales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practica las propiedades de la adición de números reales </t>
+  </si>
+  <si>
+    <t>Actividad que permite ejercitar las propiedades de la adición de números reales</t>
+  </si>
+  <si>
+    <t>¿Qué propiedad de la multiplicación de números reales se aplica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para identificar las propiedades de la multiplicación de números reales </t>
+  </si>
+  <si>
+    <t>Practica las propiedades de la adición y la multiplicación de números reales</t>
+  </si>
+  <si>
+    <t>Actividad que permite reconocer las propiedades de la adición y la multiplicación de los números reales</t>
+  </si>
+  <si>
+    <t>Actividad para practicar las operaciones y las propiedades de las operaciones de números reales</t>
+  </si>
+  <si>
+    <t>Actividad para verificar lo aprendido sobre el tema Los números reales, operaciones básicas y propiedades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa conceptual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación </t>
+  </si>
+  <si>
+    <t>Mapa conceptual sobre Los números reales</t>
+  </si>
+  <si>
+    <t>Actividad que permite evaluar los conocimientos del estudiante sobre el tema Los números reales</t>
+  </si>
+  <si>
+    <t>Interactivo que caracteriza el conjunto de los números reales</t>
+  </si>
+  <si>
+    <t>Recurso F10B-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conjunto de los números racionales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El conjunto de los números irracionales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las aproximaciones de un número real </t>
+  </si>
+  <si>
+    <t>La recta real</t>
+  </si>
+  <si>
+    <t>Los intervalos de números reales</t>
+  </si>
+  <si>
+    <t>Las operaciones con números reales</t>
+  </si>
+  <si>
+    <t>Las propiedades de la adición de números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La multiplicación y la división de números reales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consolidación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t>Nivel 1 (tema)</t>
-  </si>
-  <si>
-    <t>Apartado</t>
-  </si>
-  <si>
-    <t>Nivel 2 (subtema)</t>
-  </si>
-  <si>
-    <t>Subapartado CE</t>
-  </si>
-  <si>
-    <t>Nivel 3</t>
-  </si>
-  <si>
-    <t>ORDEN</t>
-  </si>
-  <si>
-    <t>Orden de presentación de los recursos propuestos</t>
-  </si>
-  <si>
-    <t>FICHAS</t>
-  </si>
-  <si>
-    <t>Sí / No</t>
-  </si>
-  <si>
-    <t>(según propuesta Estándares)</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Desempeños</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (según Derechos básicos de aprendizaje, MEN)</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>Consolidación</t>
-  </si>
-  <si>
-    <t>Fin de tema</t>
-  </si>
-  <si>
-    <t>Competencias</t>
-  </si>
-  <si>
-    <t>MA_09_01_CO</t>
-  </si>
-  <si>
-    <t>Los números reales</t>
-  </si>
-  <si>
-    <t>Los conjuntos numéricos</t>
-  </si>
-  <si>
-    <t>Practica la conversión de una fracción a número decimal</t>
-  </si>
-  <si>
-    <t>Actividad de ejercitación que sirve para expresar fracciones como números decimales</t>
-  </si>
-  <si>
-    <t>Practica la conversión de un número decimal a fracción</t>
-  </si>
-  <si>
-    <t>Actividad para practicar la conversión de un número racional representado como número decimal a fracción</t>
-  </si>
-  <si>
-    <t>Resuelve situaciones que involucran números racionales</t>
-  </si>
-  <si>
-    <t>Actividad para resolver situaciones relacionadas con números racionales</t>
-  </si>
-  <si>
-    <t>Resuelve situaciones problema con números irracionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para resolver situaciones relacionadas con números irracionales  </t>
-  </si>
-  <si>
-    <t>4º ESO</t>
-  </si>
-  <si>
-    <t>MT_10_13</t>
-  </si>
-  <si>
-    <t>Practica con los números reales y sus subconjuntos</t>
-  </si>
-  <si>
-    <t>Actividad que permite ejercitar la definición de algunos conjuntos numéricos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prueba tus conocimientos del conjunto de los números reales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para comprender propiedades de los números reales </t>
-  </si>
-  <si>
-    <t>¿Qué sabes de los números reales?</t>
+    <t xml:space="preserve">DBA 9º (9).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBA 9º (4).
+</t>
+  </si>
+  <si>
+    <t>Interactivo que explica diversas estrategias para resolver situaciones que involucran números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptar el recurso del autor MA_09_01_CO_REC80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptar el recurso del autor MA_09_01_CO_REC230 </t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC30 al nuevo formato M3A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proponer hasta 8 estrategias, cada una en un botón. Luego en cada estrategia resolver un problema a partir de la 4 etapas para resolver un problema propuestaspor Polya (Comprende, planea, ejecuta y verifica).  Finalmente proponer un problema con su solución en la pantalla correspondiente a la carga del ejercicio. </t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC240 al nuevo fomato M8A.  Proponer o cambiar los problemas propuestos a otros de tipo gráfico según lo desarrollado en el tema y teniendo en cuenta que deben ser problemas que privilegien el proceso de comunicación.</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>Recursos M</t>
+  </si>
+  <si>
+    <t>Recurso M3A-01</t>
+  </si>
+  <si>
+    <t>RM_01_01_CO</t>
+  </si>
+  <si>
+    <t>Recurso F6-01</t>
+  </si>
+  <si>
+    <t>Recurso M101AP-01</t>
+  </si>
+  <si>
+    <t>Recurso M1B-01</t>
+  </si>
+  <si>
+    <t>Recurso F13-01</t>
+  </si>
+  <si>
+    <t>Recurso M10B-01</t>
+  </si>
+  <si>
+    <t>Recurso M5A-03</t>
+  </si>
+  <si>
+    <t>Recurso F10B-02</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC40. Problemas que requieran el cálculo de frecuencias relativas y frecuencias relativas acumuladas expresadas como números decimales finitos o infinitos.</t>
+  </si>
+  <si>
+    <t>Adaptar el contenido del recurso del autor MA_09_01_CO_RE50. Dejar las mismas gráficas  y agregar el contenido explicado en la plataforma 4ESO/Matemáticas/Cuaderno de estudio/Los números reales/Los números reales/Los números irracionales/La expresión de los números irracionales, la representación de los números irracionales, el número áureo.</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC60. Proponer otras actividades relacionadas con el número de euler y otras con el cálculo de la longitud de la circunferencia, el área del círculo. Explicar en diferentes problemas, características del número de euler.</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta el conjunto de los números reales y sus subconjuntos</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC160 al nuevo formato M5A. Evaluar expresiones propuestas relacionadas con la representación y aplicación de intervalos. Proponer otras actividades del tipo DBA 9º(9).</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC180 al nuevo formato M3A. Aumentar ejercicios de tipo gráfico donde se representen las propiedades que cumplen las adición de números reales.</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC190 al nuevo formato M10B. Proponer actividades del tipo geométrico. Ejercicios de multiplicación de números irracionales pi, …</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC210 al nuevo formato M5A y proponer otros donde se diferencie un número racional de uno irracional y donde se proponga lo explicado en los interactivos.</t>
+  </si>
+  <si>
+    <t>Adaptar y complementar el contenido del recurso del autor MA_09_01_CO_REC120.  Axioma de completitud.</t>
+  </si>
+  <si>
+    <t>Proyecto: estudio del número π</t>
+  </si>
+  <si>
+    <t>Interactivo que presenta aspectos del número π para visualizar y formular situaciones de formas no convencionales</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC20 al nuevo formato M7A.</t>
+  </si>
+  <si>
+    <t>Recurso M7A-01</t>
+  </si>
+  <si>
+    <t>Recurso M7A-02</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC170 al nuevo formato M7A. Cálculo de diagonales de un cuadrado. Cálculo de áreas del círculo y aplicación de constante de euler.</t>
+  </si>
+  <si>
+    <t>Los números racionales como fracciones y como decimales</t>
+  </si>
+  <si>
+    <t>Una noción de número irracional</t>
+  </si>
+  <si>
+    <t>El conjunto de los números reales</t>
+  </si>
+  <si>
+    <t>Clasifica números reales</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los conjuntos numéricos</t>
+  </si>
+  <si>
+    <t>Los intervalos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los intervalos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las operaciones con números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Características de los conjuntos numéricos naturales, enteros y racionales
+Nombrar cada conjunto numérico.
+Presentar ejemplos de cada conjunto.
+Explicar las representaciones de los números racionals como fracciones y como decimales.
+Explicar los procesos para convertir de forma fraccionaria a decimal y viceversa. 
+Incluir fracción generatriz
+</t>
+  </si>
+  <si>
+    <t>¿Qué clase de número se obtiene cuando se establece una operación entre dos números reales?</t>
   </si>
   <si>
     <r>
-      <t>Aproximación de números reales; el precio por aproximarlos es el error</t>
+      <t>Cálculo de la circunferencia del círculo, Aproxmaciones de π, área de un círculo (el área de un círculo de radio r está comprendida entre 2r</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>Interactivo que explica los conceptos de aproximación, error absoluto y error relativo en una aproximación</t>
-  </si>
-  <si>
-    <t>Aproximación, error absoluto y error relativo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcula el error absoluto y el error relativo </t>
-  </si>
-  <si>
-    <t>Actividad para practicar aproximaciones de números reales  con sus errores absolutos y sus errores relativos</t>
-  </si>
-  <si>
-    <t>Calcula el error absoluto y el error relativo</t>
-  </si>
-  <si>
-    <t>La recta real y el axioma de completitud</t>
-  </si>
-  <si>
-    <t>Interactivo que explica la relación entre los números reales como puntos de la recta real y la relación de orden</t>
-  </si>
-  <si>
-    <t>Los intervalos y tipos de intervalos en la recta real</t>
-  </si>
-  <si>
-    <t>Interactivo que explica qué es un intervalo de números reales y los tipos de intervalos en la recta real</t>
-  </si>
-  <si>
-    <t>Intervalos</t>
-  </si>
-  <si>
-    <t>Practica la representación de intervalos</t>
-  </si>
-  <si>
-    <t>Practica la representación de intervalos en la recta real</t>
-  </si>
-  <si>
-    <t>Actividad de análisis para que el estudiante seleccione el intervalo que se representa en una recta numérica</t>
-  </si>
-  <si>
-    <t>Resuelve situaciones con intervalos de números reales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que permite la aplicación del concepto de intervalo de números reales  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practica las operaciones con números reales </t>
-  </si>
-  <si>
-    <t>Actividad para practicar operaciones con números reales representados como decimales, fraccionarios y radicales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practica las propiedades de la adición de números reales </t>
-  </si>
-  <si>
-    <t>Actividad que permite ejercitar las propiedades de la adición de números reales</t>
-  </si>
-  <si>
-    <t>¿Qué propiedad de la multiplicación de números reales se aplica?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad para identificar las propiedades de la multiplicación de números reales </t>
-  </si>
-  <si>
-    <t>Practica las propiedades de la adición y la multiplicación de números reales</t>
-  </si>
-  <si>
-    <t>Actividad que permite reconocer las propiedades de la adición y la multiplicación de los números reales</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Operaciones y propiedades de las operaciones de números reales</t>
-  </si>
-  <si>
-    <t>Actividad para practicar las operaciones y las propiedades de las operaciones de números reales</t>
-  </si>
-  <si>
-    <t>Competencias: comprensión del conjunto de los números reales</t>
-  </si>
-  <si>
-    <t>Actividad para verificar lo aprendido sobre el tema Los números reales, operaciones básicas y propiedades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mapa conceptual </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluación </t>
-  </si>
-  <si>
-    <t>Mapa conceptual sobre Los números reales</t>
-  </si>
-  <si>
-    <t>Actividad que permite evaluar los conocimientos del estudiante sobre el tema Los números reales</t>
-  </si>
-  <si>
-    <t>Interactivo que caracteriza el conjunto de los números reales</t>
-  </si>
-  <si>
-    <t>Recurso F10B-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El conjunto de los números racionales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El conjunto de los números irracionales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las aproximaciones de un número real </t>
-  </si>
-  <si>
-    <t>Los intervalos de números reales</t>
-  </si>
-  <si>
-    <t>Las operaciones con números reales</t>
-  </si>
-  <si>
-    <t>La adición y la sustracción de números reales</t>
-  </si>
-  <si>
-    <t>Las propiedades de la adición de números reales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La multiplicación y la división de números reales </t>
-  </si>
-  <si>
-    <t>Las propiedades de la multiplicación de números reales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consolidación </t>
-  </si>
-  <si>
-    <t>Resolución de problemas que involucran números reales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBA 9º (9).
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBA 9º (4).
-</t>
-  </si>
-  <si>
-    <t>Interactivo que explica diversas estrategias para resolver situaciones que involucran números reales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptar el recurso del autor MA_09_01_CO_REC80 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adaptar el recurso del autor MA_09_01_CO_REC230 </t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC30 al nuevo formato M3A.</t>
-  </si>
-  <si>
-    <t>Estrategias para resolver situaciones problema que involucran números reales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proponer hasta 8 estrategias, cada una en un botón. Luego en cada estrategia resolver un problema a partir de la 4 etapas para resolver un problema propuestaspor Polya (Comprende, planea, ejecuta y verifica).  Finalmente proponer un problema con su solución en la pantalla correspondiente a la carga del ejercicio. </t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC220 al formato M8A. Proponer o cambiar los problemas propuestos a otros de tipo gráfico según lo desarrollado en el tema y teniendo en cuenta que deben ser problemas que privilegien el proceso de modelación. Ver lineamientos curriculares Mat. pág.97-102.</t>
-  </si>
-  <si>
-    <t>RM</t>
-  </si>
-  <si>
-    <t>Recursos M</t>
-  </si>
-  <si>
-    <t>Recurso M3A-01</t>
-  </si>
-  <si>
-    <t>RM_01_01_CO</t>
-  </si>
-  <si>
-    <t>Recurso M3A-02</t>
-  </si>
-  <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>Recurso F6-01</t>
-  </si>
-  <si>
-    <t>Recurso M1B-01</t>
-  </si>
-  <si>
-    <t>Recurso M5A-01</t>
-  </si>
-  <si>
-    <t>Recurso M10B-01</t>
-  </si>
-  <si>
-    <t>Recurso M5A-03</t>
-  </si>
-  <si>
-    <t>Recurso F10B-02</t>
-  </si>
-  <si>
-    <t>Recurso M8A-02</t>
-  </si>
-  <si>
-    <t>Recurso M8A-03</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC60. Proponer otras actividades relacionadas con el número de euler y otras con el cálculo de la longitud de la circunferencia, el área del círculo. Explicar en diferentes problemas, características del número de euler.</t>
-  </si>
-  <si>
-    <t>El conjunto de los números reales y sus subconjuntos</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta el conjunto de los números reales y sus subconjuntos</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC150. Proponer otras actividades del tipo DBA 9º(9).</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC180 al nuevo formato M3A. Aumentar ejercicios de tipo gráfico donde se representen las propiedades que cumplen las adición de números reales.</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC190 al nuevo formato M10B. Proponer actividades del tipo geométrico. Ejercicios de multiplicación de números irracionales pi, …</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC200. Proponer actividades del tipo geométrico. Ejercicios de adición y multiplicación de números irracionales pi, …. Proponer ejercicios gráficos donde se evidencia la propiedad distributiva.</t>
-  </si>
-  <si>
-    <t>Adaptar y complementar el contenido del recurso del autor MA_09_01_CO_REC120.  Axioma de completitud.</t>
-  </si>
-  <si>
-    <t>Proyecto: estudio del número π</t>
-  </si>
-  <si>
-    <t>Interactivo que presenta aspectos del número π para visualizar y formular situaciones de formas no convencionales</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC20 al nuevo formato M7A.</t>
-  </si>
-  <si>
-    <t>Recurso M7A-01</t>
-  </si>
-  <si>
-    <t>Recurso M7A-02</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC170 al nuevo formato M7A. Cálculo de diagonales de un cuadrado. Cálculo de áreas del círculo y aplicación de constante de euler.</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los conjuntos numéricos</t>
-  </si>
-  <si>
-    <t>Actividad sobre Los conjuntos numéricos</t>
-  </si>
-  <si>
-    <t>Los números irracionales y su representación</t>
-  </si>
-  <si>
-    <t>Interactivo que explica qué es un número irracional y su representación</t>
-  </si>
-  <si>
-    <r>
-      <t>Cálculo de la circunferencia del círculo, AproxImaciones de π, área de un círculo (el área de un círculo de radio r está comprendida entre 2r</t>
-    </r>
-    <r>
-      <rPr>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1130,7 +994,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1140,8 +1005,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1151,7 +1017,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1161,8 +1028,9 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <vertAlign val="superscript"/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1172,7 +1040,8 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1182,141 +1051,122 @@
     </r>
   </si>
   <si>
-    <t>Interactivo que expone los resultados que se pueden obtener cuando se operan dos números reales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados que se pueden obtener cuando se operan dos números reales </t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC240 al nuevo fomato M5A.  Proponer o cambiar los problemas propuestos a otros de tipo gráfico según lo desarrollado en el tema y teniendo en cuenta que deben ser problemas que privilegien el proceso de comunicación.</t>
-  </si>
-  <si>
-    <t>Los intervalos en la recta numérica</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Los intervalos en la recta numérica</t>
-  </si>
-  <si>
-    <t>Actividades sobre Los intervalos en la recta numérica</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC40. Problemas que requieran el cálculo de frecuencias relativas y frecuencias relativas acumuladas expresadas como números decimales finitos o infinitos (se puede proponer una tabla de frecuencias como imagen).</t>
-  </si>
-  <si>
-    <t>Ejercicios que evalúen todos los temas desarrollados.</t>
-  </si>
-  <si>
-    <t>Recurso M8A-01</t>
+    <t>Actividad para aplicar los conocimientoss sobre subconjuntos de números reales</t>
+  </si>
+  <si>
+    <t>Actividad para reforzar lo estudiado sobre Los conjuntos numéricos</t>
+  </si>
+  <si>
+    <t>Interactivo con el que se explica qué clase de número real se obtiene cuando se operan dos números reales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estrategias para resolver situaciones problema </t>
+  </si>
+  <si>
+    <t>Actividad para resolver situaciones utilizando distintos conjunto numéricos</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>¿Es aprovechado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugerir actividades con kas cuales se puedan reconocer si los estudiantes manejan los distintos conjuntos numéricos </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los números reales</t>
+  </si>
+  <si>
+    <t>Adaptar el recurso del autor MA_09_01_CO_REC200. Proponer distintos problemas y pedir a los estudiantes que identifiquen qué propiedad se aplica.</t>
   </si>
   <si>
     <t>Recurso M5D-01</t>
   </si>
   <si>
-    <t>Recurso F10-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso F6B-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-03</t>
+    <t>Sugerir distintas situaciones en las que se apliquen adiciones, sustraciones, multiplicaciones y divisiones de números reales</t>
+  </si>
+  <si>
+    <t>Las potencias y las raíces</t>
+  </si>
+  <si>
+    <t>Competencias: estudio del número áureo</t>
+  </si>
+  <si>
+    <t>MT_10_01</t>
+  </si>
+  <si>
+    <t>Validar la información que se da en el recurso</t>
+  </si>
+  <si>
+    <t>Recurso F4-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Resuelve situaciones con distintos conjuntos numéricos</t>
+  </si>
+  <si>
+    <t>Resuelve problemas con números reales</t>
   </si>
   <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
+    <t>Recurso M5A-01</t>
+  </si>
+  <si>
+    <t>Recurso M4A-01</t>
+  </si>
+  <si>
+    <t>Recurso M102AB-02</t>
+  </si>
+  <si>
     <t>Recurso M5A-02</t>
   </si>
   <si>
-    <t>Proponer ejercicios que evalúen todos los temas desarrollados de los conjuntos numéricos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Características de los conjuntos numéricos contenidos en el conjunto de los números reales.
-Nombrar cada conjunto numérico.
-Presentar ejemplos de cada conjunto.
-Nombrar las propiedades que cumplen las operaciones de los números reales de forma generalizada y ejemplificada. Por ejemplo: La adición es clausurativa, a+b = b+a, pi + raíz de dos... etc.  (puede ser en una tabla). Ejemplificar situaciones que requieran operar con números reales calcular el área  de un círculo, la longitud de una circunferencia, el cálculo de la diagonal de un cuadrado, triángulos rectángulos).
-A partir de  gráficas, explicar las propiedades de las operaciones de números reales.
+    <t>Banco de contenidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tema (sección 1)
 </t>
   </si>
   <si>
-    <t>Recurso F7-01</t>
-  </si>
-  <si>
-    <t>El conjunto de los números racionales</t>
-  </si>
-  <si>
-    <t>Hacer una introducción de los conjuntos numéricos donde se definen oeraciones y relaciones. 
-Definir el conjunto de los números irracionales, los números racionales como fracciones, como decimales finitos e infinitos periódicos; decimales periódicos puros y mixtos.
-Proponer ejercicios donde se calculen fracciones como números decimales y viceversa; cálculo de la fracción generatriz de un número decimal infinito períodico y viceversa.
-Proponer situaciones contextualizadas que involucren decimales periódicos puros, mixtos, infinitos periódicos, fracción generatriz.</t>
-  </si>
-  <si>
-    <t>Interactivo que caracteriza el conjunto de los números racionales</t>
-  </si>
-  <si>
-    <t>Original Recurso 70. Ver en el guion las modificaciones que se sugieren.</t>
-  </si>
-  <si>
-    <t>Original Recurso 90.Ver en el guion las modificaciones que se sugieren.</t>
-  </si>
-  <si>
-    <t>Original Recurso 100. Ver en el guion las modificaciones que se sugieren.</t>
-  </si>
-  <si>
-    <t>Original Recurso 110. Ver en el guion las modificaciones que se sugieren.</t>
-  </si>
-  <si>
-    <t>Original Recurso 130. Ver en el guion las modificaciones que se sugieren.</t>
-  </si>
-  <si>
-    <t>Original Recurso 140. Ver en el guion las modificaciones que se sugieren.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Adaptar el contenido, si se considera, del recurso del autor MA_09_01_CO_RE50. Agregar el texto y las gráficas que están en la plataforma ( 4ESO/Matemáticas/Cuaderno de estudio/Los números reales/Los números reales/Los números irracionales). Ver el archivo word nombrado </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RECURSO 6 DE ESCALETA_MA_09_01_CO.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hacer una introducción al tema y exponer de acuerdo con las secciones del tipo de formato. Incluir el contenido que se sugiere y tener en cuenta que se deben incluir las páginas hipervinculadas con la palabra VER. Proponer ejercicios donde para que se determine qué tipo de resultado se puede obtener cuando se operan dos números reales según su representación. Ver el archivo word nombrado </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RECURSO 19 DE ESCALETA_MA_09_01_CO.</t>
-    </r>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC160 al nuevo formato M101AA. Evaluar expresiones propuestas relacionadas con la representación y aplicación de intervalos. Proponer otras actividades del tipo DBA 9º(9).</t>
-  </si>
-  <si>
-    <t>Adaptar el recurso del autor MA_09_01_CO_REC210 al nuevo formato M101A y proponer otros donde se diferencie un número racional de uno irracional y donde se proponga lo explicado en los interactivos.</t>
+    <t>Subtema (sección 2)</t>
+  </si>
+  <si>
+    <t>Subsubtema (sección 3)</t>
+  </si>
+  <si>
+    <t>Fichas</t>
+  </si>
+  <si>
+    <t>Número+H1:I24</t>
+  </si>
+  <si>
+    <t>Aparece en cuaderno
+Sí/No</t>
+  </si>
+  <si>
+    <t>Interactivo que explica el significado de número irracional y su construcción geométrica. Menciona algunos irracionales especiels como el número euler, el número pi, y otros.</t>
+  </si>
+  <si>
+    <t>Mostrar los distintos tipos de resultados cuando se suman dos racionales, dos irracionales, un racional con un irracional.
+Realizar una explicación similar para mostrar qupe clase de número real se obtiene si se multiplican o dividen dos números racionales, dos irracionales o una racional y otro irracional. Mostrar también ejemplos siguiendo el modelo del DBA4</t>
+  </si>
+  <si>
+    <t>Ejercicios para reforzar la noción de intervalo en la recta numérica y su representación</t>
+  </si>
+  <si>
+    <t>Verificar que se aplique lo expuesto en DBA9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1347,7 +1197,22 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1355,53 +1220,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <vertAlign val="superscript"/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1495,7 +1315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1605,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1652,269 +1472,211 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6505,3379 +6267,3302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z189"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" style="52" customWidth="1"/>
-    <col min="5" max="6" width="32.85546875" style="52" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="52" customWidth="1"/>
-    <col min="10" max="12" width="30.28515625" style="52" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="52" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="52" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" style="52" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" style="52" customWidth="1"/>
-    <col min="17" max="17" width="38.140625" style="52" customWidth="1"/>
-    <col min="18" max="18" width="21.5703125" style="52" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" style="52" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" style="52" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="52"/>
+    <col min="1" max="1" width="14.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9" style="32" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="86.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="42" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="32" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="53" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" style="32" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" style="32" customWidth="1"/>
+    <col min="20" max="20" width="16" style="32" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="11.42578125" style="32"/>
+    <col min="24" max="24" width="22.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="82" t="s">
+        <v>342</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="98" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>345</v>
+      </c>
+      <c r="J1" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="79" t="s">
+        <v>322</v>
+      </c>
+      <c r="L1" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="101"/>
+      <c r="O1" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="R1" s="90" t="s">
+        <v>122</v>
+      </c>
+      <c r="S1" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="T1" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="78"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="N2" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="100"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="88"/>
+      <c r="X2" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E3" s="37"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="56">
+        <v>1</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N3" s="34"/>
+      <c r="O3" s="59" t="s">
+        <v>313</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q3" s="44">
+        <v>6</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="S3" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="T3" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="U3" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="G4" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="57">
+        <v>2</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="K4" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q4" s="44">
+        <v>6</v>
+      </c>
+      <c r="R4" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S4" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T4" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="U4" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y4" s="38"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="G5" s="60" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="57">
+        <v>3</v>
+      </c>
+      <c r="I5" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J5" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="K5" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>6</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S5" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T5" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="U5" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y5" s="38"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="G6" s="60" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="57">
+        <v>4</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="34"/>
+      <c r="O6" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>6</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="T6" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="U6" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y6" s="38" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="60" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="57">
         <v>5</v>
       </c>
-      <c r="H1" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="I1" s="49" t="s">
+      <c r="I7" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="N7" s="34"/>
+      <c r="O7" s="46" t="s">
+        <v>291</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>6</v>
+      </c>
+      <c r="R7" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="S7" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="T7" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="U7" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="38"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="H8" s="57">
+        <v>6</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="J1" s="111" t="s">
+      <c r="R8" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="S8" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="T8" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="U8" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="38"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="57">
+        <v>7</v>
+      </c>
+      <c r="I9" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q9" s="44">
         <v>6</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="R9" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T9" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="U9" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y9" s="38"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="H10" s="57">
+        <v>8</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q10" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="R10" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="S10" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="T10" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="U10" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="38"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="46"/>
+      <c r="G11" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="57">
+        <v>9</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q11" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="R11" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="S11" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="T11" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="U11" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y11" s="38"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" s="57">
+        <v>10</v>
+      </c>
+      <c r="I12" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q12" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="R12" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="T12" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="U12" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="38"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="57">
+        <v>11</v>
+      </c>
+      <c r="I13" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="R13" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="S13" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="T13" s="45" t="s">
+        <v>238</v>
+      </c>
+      <c r="U13" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="X13" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y13" s="38"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="H14" s="57">
+        <v>12</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q14" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="R14" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="S14" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="T14" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="U14" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="38"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" s="57">
+        <v>13</v>
+      </c>
+      <c r="I15" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>6</v>
+      </c>
+      <c r="R15" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S15" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T15" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="U15" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X15" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y15" s="38"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="H16" s="57">
+        <v>14</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>6</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S16" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T16" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="U16" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="38"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="57">
+        <v>15</v>
+      </c>
+      <c r="I17" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="S17" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="T17" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="U17" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="38"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="46" t="s">
+        <v>265</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" s="57">
+        <v>16</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="46" t="s">
+        <v>351</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q18" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="R18" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="S18" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="T18" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="U18" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="X18" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y18" s="38"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="46"/>
+      <c r="G19" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="H19" s="57">
+        <v>17</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="46" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q19" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="R19" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="S19" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="T19" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="U19" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="X19" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="46"/>
+      <c r="G20" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" s="57">
+        <v>18</v>
+      </c>
+      <c r="I20" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="P20" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>6</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S20" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T20" s="45" t="s">
+        <v>337</v>
+      </c>
+      <c r="U20" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X20" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y20" s="38"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E21" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="H21" s="57">
+        <v>19</v>
+      </c>
+      <c r="I21" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="P21" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" s="44">
+        <v>6</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S21" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T21" s="45" t="s">
+        <v>287</v>
+      </c>
+      <c r="U21" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X21" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" s="38"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="H22" s="57">
+        <v>20</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="N22" s="34"/>
+      <c r="O22" s="58" t="s">
+        <v>349</v>
+      </c>
+      <c r="P22" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>6</v>
+      </c>
+      <c r="R22" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="S22" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="T22" s="45" t="s">
+        <v>289</v>
+      </c>
+      <c r="U22" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="L1" s="44" t="s">
-        <v>233</v>
-      </c>
-      <c r="M1" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="112" t="s">
+      <c r="X22" s="33"/>
+      <c r="Y22" s="38"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="57">
+        <v>21</v>
+      </c>
+      <c r="I23" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>6</v>
+      </c>
+      <c r="R23" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S23" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T23" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="U23" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X23" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y23" s="38"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="H24" s="57">
+        <v>22</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="O24" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>6</v>
+      </c>
+      <c r="R24" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S24" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T24" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="U24" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X24" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y24" s="38"/>
+    </row>
+    <row r="25" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="37"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="57">
+        <v>23</v>
+      </c>
+      <c r="I25" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="P25" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q25" s="44">
+        <v>6</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S25" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T25" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="U25" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="38"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="H26" s="57">
+        <v>24</v>
+      </c>
+      <c r="I26" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J26" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="O26" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="P26" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q26" s="44">
+        <v>6</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S26" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T26" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="U26" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X26" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y26" s="38"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="37"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="H27" s="57">
         <v>25</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="108" t="s">
+      <c r="I27" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="34"/>
+      <c r="O27" s="46" t="s">
+        <v>277</v>
+      </c>
+      <c r="P27" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q27" s="44">
+        <v>6</v>
+      </c>
+      <c r="R27" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="R1" s="108" t="s">
+      <c r="S27" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="S1" s="93" t="s">
+      <c r="T27" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="U27" s="44" t="s">
+        <v>214</v>
+      </c>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="38"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="H28" s="57">
+        <v>26</v>
+      </c>
+      <c r="I28" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J28" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="P28" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q28" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="R28" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="S28" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="T28" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="U28" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="X28" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y28" s="38"/>
+    </row>
+    <row r="29" spans="1:25" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="37"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="H29" s="57">
+        <v>27</v>
+      </c>
+      <c r="I29" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="P29" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="44">
+        <v>6</v>
+      </c>
+      <c r="R29" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="S29" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T29" s="45" t="s">
+        <v>339</v>
+      </c>
+      <c r="U29" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="38"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="37"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" s="57">
+        <v>28</v>
+      </c>
+      <c r="I30" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="P30" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="44"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="38"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="37"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="57">
+        <v>29</v>
+      </c>
+      <c r="I31" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="J31" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="P31" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q31" s="44">
+        <v>6</v>
+      </c>
+      <c r="R31" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S31" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T31" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="U31" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X31" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y31" s="38"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="H32" s="57"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="O32" s="46"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="44">
+        <v>6</v>
+      </c>
+      <c r="R32" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="S32" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="T32" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="U32" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="38"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="44"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="38"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="44"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="38"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="44"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="38"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="34"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="44"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="38"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="44"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="38"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="44"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="38"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="44"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="38"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="44"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="38"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="44"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="38"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="63"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="93"/>
+      <c r="N42" s="93"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="44"/>
+      <c r="X42" s="61"/>
+      <c r="Y42" s="61"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="64"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="94"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="76"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="44"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="61"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="64"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="44"/>
+      <c r="X44" s="61"/>
+      <c r="Y44" s="61"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="77"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="44"/>
+      <c r="X45" s="61"/>
+      <c r="Y45" s="61"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="30"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="45"/>
+      <c r="U46" s="44"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J50" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J87" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L87" s="32" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="T1" s="95" t="s">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="U1" s="93" t="s">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G100" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G101" s="32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G102" s="32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G104" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G106" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="V1" s="94" t="s">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G107" s="32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G108" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="W1" s="93" t="s">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G109" s="32" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>235</v>
-      </c>
-      <c r="M2" s="110"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="54" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G110" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="P2" s="54" t="s">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G111" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="93"/>
-    </row>
-    <row r="3" spans="1:26" ht="300" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="42"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="115">
-        <v>1</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="O3" s="66" t="s">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="43" t="s">
-        <v>365</v>
-      </c>
-      <c r="R3" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="S3" s="34">
-        <v>6</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="U3" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="V3" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="W3" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="249.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="79" t="s">
-        <v>367</v>
-      </c>
-      <c r="H4" s="58">
-        <v>2</v>
-      </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="80" t="s">
-        <v>369</v>
-      </c>
-      <c r="K4" s="75"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="N4" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="66" t="s">
+      <c r="G112" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G113" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G114" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="G115" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="G116" s="32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G117" s="32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G118" s="32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="G119" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78" t="s">
-        <v>368</v>
-      </c>
-      <c r="R4" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S4" s="34">
-        <v>6</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="V4" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="W4" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="H5" s="56">
-        <v>3</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="K5" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N5" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="54"/>
-      <c r="P5" s="72" t="s">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="G120" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G121" s="32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G123" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G124" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="G125" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="G126" s="32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="G127" s="32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G128" s="32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="G129" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G130" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="Q5" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="R5" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S5" s="34">
-        <v>6</v>
-      </c>
-      <c r="T5" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U5" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V5" s="37" t="s">
-        <v>340</v>
-      </c>
-      <c r="W5" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y5" s="52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="56">
-        <v>4</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="K6" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="54"/>
-      <c r="P6" s="72" t="s">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="G131" s="32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="G132" s="32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G133" s="32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="G134" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="G135" s="32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G136" s="32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G137" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G138" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G139" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="Q6" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="R6" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S6" s="34">
-        <v>6</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V6" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="W6" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y6" s="52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="H7" s="56">
-        <v>5</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="K7" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="L7" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q7" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="R7" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S7" s="34">
-        <v>6</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U7" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V7" s="37" t="s">
-        <v>356</v>
-      </c>
-      <c r="W7" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y7" s="52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="H8" s="56">
-        <v>6</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>346</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="R8" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S8" s="34">
-        <v>6</v>
-      </c>
-      <c r="T8" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="U8" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="V8" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="W8" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y8" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="56">
-        <v>7</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J9" s="51" t="s">
-        <v>252</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54" t="s">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G140" s="32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G141" s="32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G142" s="32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G143" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G144" s="32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G145" s="32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G146" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G147" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="R9" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S9" s="34">
-        <v>6</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U9" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V9" s="37" t="s">
-        <v>357</v>
-      </c>
-      <c r="W9" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y9" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="H10" s="56">
-        <v>8</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>331</v>
-      </c>
-      <c r="K10" s="44"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="O10" s="72"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="117" t="s">
-        <v>370</v>
-      </c>
-      <c r="R10" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="U10" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="V10" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="W10" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y10" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="H11" s="56">
-        <v>9</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q11" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="R11" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S11" s="34">
-        <v>6</v>
-      </c>
-      <c r="T11" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U11" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V11" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="W11" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y11" s="52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="H12" s="56">
-        <v>10</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="N12" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="117" t="s">
-        <v>371</v>
-      </c>
-      <c r="R12" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S12" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="T12" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="U12" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="V12" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="W12" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y12" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="H13" s="56">
-        <v>11</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J13" s="51" t="s">
-        <v>261</v>
-      </c>
-      <c r="K13" s="44"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="117" t="s">
-        <v>372</v>
-      </c>
-      <c r="R13" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S13" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="V13" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="W13" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" s="56">
-        <v>12</v>
-      </c>
-      <c r="I14" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J14" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="K14" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="117" t="s">
-        <v>373</v>
-      </c>
-      <c r="R14" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S14" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="T14" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="U14" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="V14" s="37" t="s">
-        <v>265</v>
-      </c>
-      <c r="W14" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="70"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>244</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="H15" s="56">
-        <v>13</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="69" t="s">
-        <v>344</v>
-      </c>
-      <c r="K15" s="67" t="s">
-        <v>215</v>
-      </c>
-      <c r="L15" s="68"/>
-      <c r="M15" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="72"/>
-      <c r="P15" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q15" s="73" t="s">
-        <v>364</v>
-      </c>
-      <c r="R15" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S15" s="34">
-        <v>6</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U15" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V15" s="37" t="s">
-        <v>320</v>
-      </c>
-      <c r="W15" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="79" t="s">
-        <v>266</v>
-      </c>
-      <c r="H16" s="116">
-        <v>14</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="N16" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="O16" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="R16" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="S16" s="34">
-        <v>6</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="U16" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="V16" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="W16" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="Y16" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z16" s="52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="H17" s="56">
-        <v>15</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J17" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="N17" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="117" t="s">
-        <v>374</v>
-      </c>
-      <c r="R17" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="T17" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="U17" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="V17" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="W17" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y17" s="52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="270" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="H18" s="56">
-        <v>16</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="K18" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="N18" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="117" t="s">
-        <v>375</v>
-      </c>
-      <c r="R18" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S18" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="T18" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="U18" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="V18" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="W18" s="36" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="H19" s="56">
-        <v>17</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="K19" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N19" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q19" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="R19" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S19" s="34">
-        <v>6</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U19" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V19" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="W19" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>351</v>
-      </c>
-      <c r="E20" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="68" t="s">
-        <v>352</v>
-      </c>
-      <c r="H20" s="56">
-        <v>18</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J20" s="69" t="s">
-        <v>353</v>
-      </c>
-      <c r="K20" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="L20" s="57" t="s">
-        <v>306</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N20" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q20" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="R20" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S20" s="34">
-        <v>6</v>
-      </c>
-      <c r="T20" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U20" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V20" s="37" t="s">
-        <v>359</v>
-      </c>
-      <c r="W20" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="189.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D21" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="68" t="s">
-        <v>349</v>
-      </c>
-      <c r="H21" s="116">
-        <v>19</v>
-      </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="69" t="s">
-        <v>348</v>
-      </c>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="R21" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="S21" s="34">
-        <v>6</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="U21" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="V21" s="37" t="s">
-        <v>360</v>
-      </c>
-      <c r="W21" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D22" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="56">
-        <v>20</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N22" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O22" s="54"/>
-      <c r="P22" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="R22" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S22" s="34">
-        <v>6</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U22" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V22" s="37" t="s">
-        <v>341</v>
-      </c>
-      <c r="W22" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y22" s="52" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="90" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="H23" s="56">
-        <v>21</v>
-      </c>
-      <c r="I23" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="J23" s="33" t="s">
-        <v>279</v>
-      </c>
-      <c r="K23" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O23" s="54"/>
-      <c r="P23" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q23" s="47" t="s">
-        <v>333</v>
-      </c>
-      <c r="R23" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S23" s="34">
-        <v>6</v>
-      </c>
-      <c r="T23" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U23" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V23" s="37" t="s">
-        <v>319</v>
-      </c>
-      <c r="W23" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="Y23" s="52" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="56">
-        <v>22</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="K24" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N24" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O24" s="54"/>
-      <c r="P24" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q24" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="R24" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S24" s="34">
-        <v>6</v>
-      </c>
-      <c r="T24" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U24" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V24" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="W24" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="H25" s="56">
-        <v>23</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="K25" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N25" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q25" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="R25" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S25" s="34">
-        <v>6</v>
-      </c>
-      <c r="T25" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U25" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V25" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="W25" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26" s="81" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="31" t="s">
-        <v>284</v>
-      </c>
-      <c r="H26" s="56">
-        <v>24</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="K26" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N26" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O26" s="54"/>
-      <c r="P26" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q26" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="R26" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S26" s="34">
-        <v>6</v>
-      </c>
-      <c r="T26" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U26" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V26" s="37" t="s">
-        <v>361</v>
-      </c>
-      <c r="W26" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="170.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>304</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="H27" s="116">
-        <v>25</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="J27" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="K27" s="44"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="O27" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="R27" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="S27" s="34">
-        <v>6</v>
-      </c>
-      <c r="T27" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="U27" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="V27" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="W27" s="36" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="H28" s="56">
-        <v>26</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="K28" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N28" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O28" s="54"/>
-      <c r="P28" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q28" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="R28" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S28" s="34">
-        <v>6</v>
-      </c>
-      <c r="T28" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U28" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V28" s="37" t="s">
-        <v>323</v>
-      </c>
-      <c r="W28" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>241</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="H29" s="56">
-        <v>27</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="64" t="s">
-        <v>338</v>
-      </c>
-      <c r="K29" s="60"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="N29" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="O29" s="72"/>
-      <c r="P29" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q29" s="62" t="s">
-        <v>347</v>
-      </c>
-      <c r="R29" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S29" s="34">
-        <v>6</v>
-      </c>
-      <c r="T29" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U29" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V29" s="37" t="s">
-        <v>362</v>
-      </c>
-      <c r="W29" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="H30" s="56">
-        <v>28</v>
-      </c>
-      <c r="I30" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="K30" s="44"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N30" s="46"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="47" t="s">
-        <v>310</v>
-      </c>
-      <c r="R30" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S30" s="34"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="36"/>
-    </row>
-    <row r="31" spans="1:25" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="H31" s="56">
-        <v>29</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="K31" s="44" t="s">
-        <v>219</v>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N31" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="O31" s="54"/>
-      <c r="P31" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q31" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="R31" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="S31" s="34">
-        <v>6</v>
-      </c>
-      <c r="T31" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U31" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V31" s="37" t="s">
-        <v>363</v>
-      </c>
-      <c r="W31" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>242</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="68" t="s">
-        <v>289</v>
-      </c>
-      <c r="H32" s="116">
-        <v>30</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>232</v>
-      </c>
-      <c r="J32" s="69" t="s">
-        <v>291</v>
-      </c>
-      <c r="K32" s="67" t="s">
-        <v>219</v>
-      </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="N32" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="O32" s="54"/>
-      <c r="P32" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q32" s="43" t="s">
-        <v>355</v>
-      </c>
-      <c r="R32" s="55" t="s">
-        <v>232</v>
-      </c>
-      <c r="S32" s="34">
-        <v>6</v>
-      </c>
-      <c r="T32" s="35" t="s">
-        <v>315</v>
-      </c>
-      <c r="U32" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="V32" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="W32" s="36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="54"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="36"/>
-    </row>
-    <row r="34" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="54"/>
-      <c r="P34" s="54"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="36"/>
-    </row>
-    <row r="35" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="54"/>
-      <c r="P35" s="54"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="36"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="36"/>
-    </row>
-    <row r="36" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="45"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="44"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="54"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="36"/>
-      <c r="V36" s="37"/>
-      <c r="W36" s="36"/>
-    </row>
-    <row r="37" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="54"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="36"/>
-    </row>
-    <row r="38" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="54"/>
-      <c r="P38" s="54"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="36"/>
-    </row>
-    <row r="39" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="44"/>
-      <c r="O39" s="54"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="36"/>
-    </row>
-    <row r="40" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="44"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="54"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="36"/>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="44"/>
-      <c r="O41" s="54"/>
-      <c r="P41" s="54"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="37"/>
-      <c r="W41" s="36"/>
-    </row>
-    <row r="42" spans="1:23" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="102"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="90"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="83"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="114"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="37"/>
-      <c r="W42" s="36"/>
-    </row>
-    <row r="43" spans="1:23" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
-      <c r="Q43" s="114"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="37"/>
-      <c r="W43" s="36"/>
-    </row>
-    <row r="44" spans="1:23" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="100"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="114"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="37"/>
-      <c r="W44" s="36"/>
-    </row>
-    <row r="45" spans="1:23" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="101"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="114"/>
-      <c r="R45" s="98"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="37"/>
-      <c r="W45" s="36"/>
-    </row>
-    <row r="46" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="56"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="37"/>
-      <c r="W46" s="36"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="J50" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="M50" s="52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E58" s="52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C87" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="J87" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="N87" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="G100" s="52" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="G101" s="52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="G102" s="52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="G103" s="52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="G104" s="52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="G105" s="52" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="G106" s="52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="G107" s="52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="G108" s="52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="G110" s="52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="G111" s="52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="52" t="s">
-        <v>122</v>
-      </c>
-      <c r="G112" s="52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G113" s="52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="G114" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="G115" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G116" s="52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="G117" s="52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="G118" s="52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="G119" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="G120" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="G121" s="52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="G122" s="52" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="G123" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="52" t="s">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G148" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G124" s="52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="52" t="s">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G149" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="G125" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="52" t="s">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="G150" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G126" s="52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="52" t="s">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G151" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="G127" s="52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="52" t="s">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="G152" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="G128" s="52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="52" t="s">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G153" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="G129" s="52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="52" t="s">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="G154" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="G130" s="52" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="52" t="s">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="G155" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G131" s="52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="52" t="s">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="G156" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="G132" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="52" t="s">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="G157" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="G133" s="52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="52" t="s">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="G158" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G134" s="52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="52" t="s">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G159" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="G135" s="52" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="52" t="s">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G160" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="52" t="s">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G161" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="G137" s="52" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="52" t="s">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="G162" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G138" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="52" t="s">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="G163" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="G139" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="52" t="s">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="G164" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="G140" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="52" t="s">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="G165" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="G141" s="52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="52" t="s">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G166" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="G142" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="52" t="s">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="G167" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="G143" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="52" t="s">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="G168" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="G144" s="52" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="52" t="s">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="G169" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="G145" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="52" t="s">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G170" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="G146" s="52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="52" t="s">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G171" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="G147" s="52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="52" t="s">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="G172" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="G148" s="52" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="52" t="s">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G173" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="G149" s="52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="52" t="s">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G174" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="G150" s="52" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="52" t="s">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G175" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="52" t="s">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G176" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="G152" s="52" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="52" t="s">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G177" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="G153" s="52" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="52" t="s">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G178" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="G154" s="52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="52" t="s">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="G155" s="52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="52" t="s">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G180" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="G156" s="52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="52" t="s">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G181" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="G157" s="52" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="52" t="s">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G182" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G158" s="52" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="52" t="s">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G183" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="G159" s="52" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="52" t="s">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G184" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="G160" s="52" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="52" t="s">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G185" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="G161" s="52" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="52" t="s">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G186" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="G162" s="52" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="52" t="s">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G187" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="G163" s="52" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="52" t="s">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="G164" s="52" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="52" t="s">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="G165" s="52" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="G166" s="52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="G167" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="G168" s="52" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="52" t="s">
-        <v>202</v>
-      </c>
-      <c r="G169" s="52" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="G170" s="52" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="G171" s="52" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="G172" s="52" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="G173" s="52" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="G174" s="52" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="G175" s="52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="G176" s="52" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="G177" s="52" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="G178" s="52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G179" s="52" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G180" s="52" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G181" s="52" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G182" s="52" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G183" s="52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G184" s="52" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G185" s="52" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G186" s="52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G187" s="52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G188" s="52" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G189" s="52" t="s">
-        <v>211</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="R42:R45"/>
+  <mergeCells count="34">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="Y42:Y45"/>
+    <mergeCell ref="O42:O45"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="B42:B45"/>
     <mergeCell ref="C42:C45"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="L42:L45"/>
-    <mergeCell ref="Q42:Q45"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="X42:X45"/>
+    <mergeCell ref="K42:K45"/>
     <mergeCell ref="P42:P45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="M42:M45"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46">
       <formula1>$C$48:$G$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M46 M3:M42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K46 K3:K42">
       <formula1>$C$49:$D$49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46">
-      <formula1>$C$50:$M$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O46 O3:O42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M46 M3:M42">
       <formula1>$A$52:$A$64</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P46 P3:P42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N46 N3:N42">
       <formula1>$A$89:$A$178</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K46:L46 K3:K42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X46:Y46 X3:X42">
       <formula1>$E$54:$E$58</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X19 R3:R42">
-      <formula1>$Y$22:$Y$23</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y42 L3:L42">
+      <formula1>$C$50:$X$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L42 N3:N42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L46">
       <formula1>$C$50:$K$50</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A42">
       <formula1>$C$48:$H$48</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P42">
+      <formula1>$W$20:$W$20</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion01\ESCALETA_MA_09_01_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS PLANETA. FERNANDA\ESCALETAS\ESCALETA_MA_09_01_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6450" windowHeight="7035" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
@@ -6270,8 +6270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -6488,7 +6488,7 @@
       <c r="G4" s="60" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="56">
         <v>2</v>
       </c>
       <c r="I4" s="56" t="s">
@@ -6553,7 +6553,7 @@
       <c r="G5" s="60" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="56">
         <v>3</v>
       </c>
       <c r="I5" s="56" t="s">
@@ -6618,7 +6618,7 @@
       <c r="G6" s="60" t="s">
         <v>225</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="56">
         <v>4</v>
       </c>
       <c r="I6" s="56" t="s">
@@ -6685,7 +6685,7 @@
       <c r="G7" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="56">
         <v>5</v>
       </c>
       <c r="I7" s="56" t="s">
@@ -6748,7 +6748,7 @@
       <c r="G8" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="56">
         <v>6</v>
       </c>
       <c r="I8" s="56" t="s">
@@ -6807,7 +6807,7 @@
       <c r="G9" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="56">
         <v>7</v>
       </c>
       <c r="I9" s="56" t="s">
@@ -6870,7 +6870,7 @@
       <c r="G10" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="56">
         <v>8</v>
       </c>
       <c r="I10" s="56" t="s">
@@ -6927,7 +6927,7 @@
       <c r="G11" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="57">
+      <c r="H11" s="56">
         <v>9</v>
       </c>
       <c r="I11" s="57" t="s">
@@ -6990,7 +6990,7 @@
       <c r="G12" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="56">
         <v>10</v>
       </c>
       <c r="I12" s="56" t="s">
@@ -7051,7 +7051,7 @@
       <c r="G13" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="57">
+      <c r="H13" s="56">
         <v>11</v>
       </c>
       <c r="I13" s="56" t="s">
@@ -7112,7 +7112,7 @@
       <c r="G14" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="56">
         <v>12</v>
       </c>
       <c r="I14" s="56" t="s">
@@ -7175,7 +7175,7 @@
       <c r="G15" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="56">
         <v>13</v>
       </c>
       <c r="I15" s="56" t="s">
@@ -7238,7 +7238,7 @@
       <c r="G16" s="60" t="s">
         <v>239</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="56">
         <v>14</v>
       </c>
       <c r="I16" s="56" t="s">
@@ -7301,7 +7301,7 @@
       <c r="G17" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="H17" s="57">
+      <c r="H17" s="56">
         <v>15</v>
       </c>
       <c r="I17" s="56" t="s">
@@ -7360,7 +7360,7 @@
       <c r="G18" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="56">
         <v>16</v>
       </c>
       <c r="I18" s="57" t="s">
@@ -7423,7 +7423,7 @@
       <c r="G19" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="56">
         <v>17</v>
       </c>
       <c r="I19" s="56" t="s">
@@ -7488,7 +7488,7 @@
       <c r="G20" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="56">
         <v>18</v>
       </c>
       <c r="I20" s="57" t="s">
@@ -7553,7 +7553,7 @@
       <c r="G21" s="60" t="s">
         <v>249</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="56">
         <v>19</v>
       </c>
       <c r="I21" s="56" t="s">
@@ -7616,7 +7616,7 @@
       <c r="G22" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="56">
         <v>20</v>
       </c>
       <c r="I22" s="56" t="s">
@@ -7677,7 +7677,7 @@
       <c r="G23" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="56">
         <v>21</v>
       </c>
       <c r="I23" s="56" t="s">
@@ -7740,7 +7740,7 @@
       <c r="G24" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="56">
         <v>22</v>
       </c>
       <c r="I24" s="56" t="s">
@@ -7803,7 +7803,7 @@
       <c r="G25" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="56">
         <v>23</v>
       </c>
       <c r="I25" s="56" t="s">
@@ -7866,7 +7866,7 @@
       <c r="G26" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="56">
         <v>24</v>
       </c>
       <c r="I26" s="56" t="s">
@@ -7929,7 +7929,7 @@
       <c r="G27" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="56">
         <v>25</v>
       </c>
       <c r="I27" s="56" t="s">
@@ -7990,7 +7990,7 @@
       <c r="G28" s="38" t="s">
         <v>329</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="56">
         <v>26</v>
       </c>
       <c r="I28" s="56" t="s">
@@ -8051,7 +8051,7 @@
       <c r="G29" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="56">
         <v>27</v>
       </c>
       <c r="I29" s="56" t="s">
@@ -8112,7 +8112,7 @@
       <c r="G30" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="H30" s="57">
+      <c r="H30" s="56">
         <v>28</v>
       </c>
       <c r="I30" s="57" t="s">
@@ -8159,7 +8159,7 @@
       <c r="G31" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="56">
         <v>29</v>
       </c>
       <c r="I31" s="56" t="s">
@@ -8214,7 +8214,9 @@
       <c r="G32" s="60" t="s">
         <v>341</v>
       </c>
-      <c r="H32" s="57"/>
+      <c r="H32" s="56">
+        <v>30</v>
+      </c>
       <c r="I32" s="55"/>
       <c r="J32" s="39"/>
       <c r="K32" s="40"/>
@@ -8253,7 +8255,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="36"/>
       <c r="G33" s="38"/>
-      <c r="H33" s="39"/>
+      <c r="H33" s="56"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
       <c r="K33" s="40"/>

--- a/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS PLANETA. FERNANDA\ESCALETAS\ESCALETA_MA_09_01_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS PLANETA. FERNANDA\ESCALETAS\ESCALETA_MA_09_01_CO\ESCALETA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="353">
   <si>
     <t>Asignatura</t>
   </si>
@@ -704,9 +704,6 @@
     <t>Actividad para resolver situaciones relacionadas con números racionales</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para resolver situaciones relacionadas con números irracionales  </t>
-  </si>
-  <si>
     <t>4º ESO</t>
   </si>
   <si>
@@ -719,9 +716,6 @@
     <t>Actividad que permite ejercitar la definición de algunos conjuntos numéricos</t>
   </si>
   <si>
-    <t xml:space="preserve">Actividad para comprender propiedades de los números reales </t>
-  </si>
-  <si>
     <t>¿Qué sabes de los números reales?</t>
   </si>
   <si>
@@ -734,18 +728,12 @@
     <t xml:space="preserve">Calcula el error absoluto y el error relativo </t>
   </si>
   <si>
-    <t>Actividad para practicar aproximaciones de números reales  con sus errores absolutos y sus errores relativos</t>
-  </si>
-  <si>
     <t>Calcula el error absoluto y el error relativo</t>
   </si>
   <si>
     <t>La recta real y el axioma de completitud</t>
   </si>
   <si>
-    <t>Interactivo que explica la relación entre los números reales como puntos de la recta real y la relación de orden</t>
-  </si>
-  <si>
     <t>Interactivo que explica qué es un intervalo de números reales y los tipos de intervalos en la recta real</t>
   </si>
   <si>
@@ -755,9 +743,6 @@
     <t>Practica la representación de intervalos</t>
   </si>
   <si>
-    <t>Actividades para practicar intervalos de números reales</t>
-  </si>
-  <si>
     <t xml:space="preserve">Practica las operaciones con números reales </t>
   </si>
   <si>
@@ -767,9 +752,6 @@
     <t xml:space="preserve">Practica las propiedades de la adición de números reales </t>
   </si>
   <si>
-    <t>Actividad que permite ejercitar las propiedades de la adición de números reales</t>
-  </si>
-  <si>
     <t>¿Qué propiedad de la multiplicación de números reales se aplica?</t>
   </si>
   <si>
@@ -779,15 +761,6 @@
     <t>Practica las propiedades de la adición y la multiplicación de números reales</t>
   </si>
   <si>
-    <t>Actividad que permite reconocer las propiedades de la adición y la multiplicación de los números reales</t>
-  </si>
-  <si>
-    <t>Actividad para practicar las operaciones y las propiedades de las operaciones de números reales</t>
-  </si>
-  <si>
-    <t>Actividad para verificar lo aprendido sobre el tema Los números reales, operaciones básicas y propiedades</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mapa conceptual </t>
   </si>
   <si>
@@ -798,9 +771,6 @@
   </si>
   <si>
     <t>Actividad que permite evaluar los conocimientos del estudiante sobre el tema Los números reales</t>
-  </si>
-  <si>
-    <t>Interactivo que caracteriza el conjunto de los números reales</t>
   </si>
   <si>
     <t>Recurso F10B-01</t>
@@ -972,9 +942,6 @@
 Explicar los procesos para convertir de forma fraccionaria a decimal y viceversa. 
 Incluir fracción generatriz
 </t>
-  </si>
-  <si>
-    <t>¿Qué clase de número se obtiene cuando se establece una operación entre dos números reales?</t>
   </si>
   <si>
     <r>
@@ -1051,21 +1018,9 @@
     </r>
   </si>
   <si>
-    <t>Actividad para aplicar los conocimientoss sobre subconjuntos de números reales</t>
-  </si>
-  <si>
-    <t>Actividad para reforzar lo estudiado sobre Los conjuntos numéricos</t>
-  </si>
-  <si>
-    <t>Interactivo con el que se explica qué clase de número real se obtiene cuando se operan dos números reales.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estrategias para resolver situaciones problema </t>
   </si>
   <si>
-    <t>Actividad para resolver situaciones utilizando distintos conjunto numéricos</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
@@ -1105,12 +1060,6 @@
     <t>Recurso M101A-01</t>
   </si>
   <si>
-    <t>Refuerza tu aprendizaje: Resuelve situaciones con distintos conjuntos numéricos</t>
-  </si>
-  <si>
-    <t>Resuelve problemas con números reales</t>
-  </si>
-  <si>
     <t>Recurso M102AB-01</t>
   </si>
   <si>
@@ -1124,9 +1073,6 @@
   </si>
   <si>
     <t>Recurso M5A-02</t>
-  </si>
-  <si>
-    <t>Banco de contenidos</t>
   </si>
   <si>
     <t xml:space="preserve">Tema (sección 1)
@@ -1149,17 +1095,74 @@
 Sí/No</t>
   </si>
   <si>
-    <t>Interactivo que explica el significado de número irracional y su construcción geométrica. Menciona algunos irracionales especiels como el número euler, el número pi, y otros.</t>
-  </si>
-  <si>
     <t>Mostrar los distintos tipos de resultados cuando se suman dos racionales, dos irracionales, un racional con un irracional.
 Realizar una explicación similar para mostrar qupe clase de número real se obtiene si se multiplican o dividen dos números racionales, dos irracionales o una racional y otro irracional. Mostrar también ejemplos siguiendo el modelo del DBA4</t>
   </si>
   <si>
-    <t>Ejercicios para reforzar la noción de intervalo en la recta numérica y su representación</t>
-  </si>
-  <si>
     <t>Verificar que se aplique lo expuesto en DBA9</t>
+  </si>
+  <si>
+    <t>Interactivo que explica qué son los números irracionales y algunos ejemplos de ellos</t>
+  </si>
+  <si>
+    <t>Interactivo que caracteriza el conjunto de los números racionales</t>
+  </si>
+  <si>
+    <t>Actividad para aplicar los conocimientos sobre los subconjuntos de los números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para reconocer propiedades de los números reales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para practicar aproximaciones de números reales, error absoluto y error relativo </t>
+  </si>
+  <si>
+    <t>Actividad sobre Los conjuntos numéricos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad sobre Situaciones que involucran conjuntos numéricos  </t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Situaciones que involucran conjuntos numéricos</t>
+  </si>
+  <si>
+    <t>Interactivo que explica la relación entre los números reales como puntos de la recta real</t>
+  </si>
+  <si>
+    <t>Actividad que permite ejercitar la representación de intervalos en la recta real</t>
+  </si>
+  <si>
+    <t>Actividades sobre Los intervalos</t>
+  </si>
+  <si>
+    <t>Actividad para ejercitar las propiedades de la adición de números reales</t>
+  </si>
+  <si>
+    <t>¿A cuál conjunto numérico pertenece el resultado de una operación con números reales?</t>
+  </si>
+  <si>
+    <t>Interactivo que explica a cuál conjunto numérico pertenecen los resultados de una operación con números reales</t>
+  </si>
+  <si>
+    <t>Actividad para reconocer las propiedades de la adición y la multiplicación de los números reales</t>
+  </si>
+  <si>
+    <t>Resuelve situaciones problema que involucran números reales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad para resolver situaciones problema que involucran los números reales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad sobre Las operaciones con números reales </t>
+  </si>
+  <si>
+    <t>Actividad que propone desarrollar destrezas para calcular el número de oro y comprobar algunas propiedades de este</t>
+  </si>
+  <si>
+    <t>Banco de actividades: Los números reales</t>
+  </si>
+  <si>
+    <t>Motor que incluye actividades de respuesta abierta del tema Los números reales</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1523,7 +1526,6 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1555,56 +1557,62 @@
     <xf numFmtId="0" fontId="6" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1636,47 +1644,47 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6270,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -6291,7 +6299,7 @@
     <col min="13" max="13" width="4.7109375" style="42" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" style="42" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33.140625" style="32" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="53" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="52" customWidth="1"/>
     <col min="17" max="17" width="8.42578125" style="32" customWidth="1"/>
     <col min="18" max="18" width="6.7109375" style="32" customWidth="1"/>
     <col min="19" max="19" width="10.85546875" style="32" customWidth="1"/>
@@ -6304,65 +6312,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="82" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>344</v>
-      </c>
-      <c r="G1" s="61" t="s">
+      <c r="D1" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" s="85" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="G1" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="98" t="s">
-        <v>346</v>
-      </c>
-      <c r="I1" s="98" t="s">
-        <v>345</v>
-      </c>
-      <c r="J1" s="80" t="s">
+      <c r="H1" s="70" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="79" t="s">
-        <v>322</v>
-      </c>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="80" t="s">
+        <v>307</v>
+      </c>
+      <c r="L1" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="100" t="s">
+      <c r="N1" s="73"/>
+      <c r="O1" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="P1" s="91" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q1" s="88" t="s">
+      <c r="P1" s="62" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q1" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="88" t="s">
+      <c r="S1" s="74" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="88" t="s">
+      <c r="U1" s="74" t="s">
         <v>125</v>
       </c>
       <c r="X1" s="33" t="s">
@@ -6373,31 +6381,31 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="61"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="67"/>
       <c r="M2" s="34" t="s">
         <v>126</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="88"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="74"/>
       <c r="X2" s="33" t="s">
         <v>206</v>
       </c>
@@ -6419,18 +6427,18 @@
         <v>220</v>
       </c>
       <c r="E3" s="37"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="H3" s="56">
+      <c r="F3" s="54"/>
+      <c r="G3" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" s="55">
         <v>1</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>259</v>
+      <c r="J3" s="61" t="s">
+        <v>333</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>208</v>
@@ -6442,10 +6450,10 @@
         <v>96</v>
       </c>
       <c r="N3" s="34"/>
-      <c r="O3" s="59" t="s">
-        <v>313</v>
-      </c>
-      <c r="P3" s="52" t="s">
+      <c r="O3" s="58" t="s">
+        <v>303</v>
+      </c>
+      <c r="P3" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q3" s="44">
@@ -6458,14 +6466,14 @@
         <v>213</v>
       </c>
       <c r="T3" s="45" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="U3" s="44" t="s">
         <v>214</v>
       </c>
       <c r="X3" s="33"/>
       <c r="Y3" s="38" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -6482,16 +6490,16 @@
         <v>220</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F4" s="46"/>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="55">
         <v>2</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="55" t="s">
         <v>208</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -6508,25 +6516,25 @@
         <v>103</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="P4" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="P4" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q4" s="44">
         <v>6</v>
       </c>
       <c r="R4" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S4" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="U4" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X4" s="33" t="s">
         <v>205</v>
@@ -6547,19 +6555,19 @@
         <v>220</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F5" s="46"/>
-      <c r="G5" s="60" t="s">
+      <c r="G5" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="55">
         <v>3</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="61" t="s">
         <v>224</v>
       </c>
       <c r="K5" s="40" t="s">
@@ -6573,25 +6581,25 @@
         <v>135</v>
       </c>
       <c r="O5" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="P5" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="P5" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q5" s="44">
         <v>6</v>
       </c>
       <c r="R5" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S5" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T5" s="45" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="U5" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X5" s="33" t="s">
         <v>205</v>
@@ -6612,19 +6620,19 @@
         <v>220</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F6" s="46"/>
-      <c r="G6" s="60" t="s">
+      <c r="G6" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="55">
         <v>4</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="61" t="s">
         <v>226</v>
       </c>
       <c r="K6" s="40" t="s">
@@ -6638,9 +6646,9 @@
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="P6" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="P6" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q6" s="44">
@@ -6653,7 +6661,7 @@
         <v>213</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="U6" s="44" t="s">
         <v>214</v>
@@ -6662,7 +6670,7 @@
         <v>203</v>
       </c>
       <c r="Y6" s="38" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -6679,20 +6687,20 @@
         <v>220</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F7" s="46"/>
-      <c r="G7" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="H7" s="56">
+      <c r="G7" s="59" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="55">
         <v>5</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="39" t="s">
-        <v>348</v>
+      <c r="J7" s="61" t="s">
+        <v>332</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>208</v>
@@ -6705,9 +6713,9 @@
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="P7" s="52" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q7" s="44">
@@ -6720,7 +6728,7 @@
         <v>213</v>
       </c>
       <c r="T7" s="45" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="U7" s="44" t="s">
         <v>214</v>
@@ -6746,16 +6754,16 @@
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="38" t="s">
-        <v>307</v>
-      </c>
-      <c r="H8" s="56">
+        <v>297</v>
+      </c>
+      <c r="H8" s="55">
         <v>6</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="39" t="s">
-        <v>293</v>
+      <c r="J8" s="61" t="s">
+        <v>283</v>
       </c>
       <c r="K8" s="40" t="s">
         <v>207</v>
@@ -6766,11 +6774,11 @@
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
       <c r="O8" s="46"/>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q8" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R8" s="43" t="s">
         <v>210</v>
@@ -6782,7 +6790,7 @@
         <v>219</v>
       </c>
       <c r="U8" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X8" s="33"/>
       <c r="Y8" s="38"/>
@@ -6804,17 +6812,17 @@
         <v>219</v>
       </c>
       <c r="F9" s="46"/>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="55">
+        <v>7</v>
+      </c>
+      <c r="I9" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="J9" s="61" t="s">
         <v>230</v>
-      </c>
-      <c r="H9" s="56">
-        <v>7</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>231</v>
       </c>
       <c r="K9" s="40" t="s">
         <v>208</v>
@@ -6827,25 +6835,25 @@
         <v>130</v>
       </c>
       <c r="O9" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="P9" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="P9" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q9" s="44">
         <v>6</v>
       </c>
       <c r="R9" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S9" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T9" s="45" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="U9" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X9" s="33" t="s">
         <v>205</v>
@@ -6868,16 +6876,16 @@
       <c r="E10" s="37"/>
       <c r="F10" s="46"/>
       <c r="G10" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="H10" s="56">
+        <v>298</v>
+      </c>
+      <c r="H10" s="55">
         <v>8</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>316</v>
+      <c r="J10" s="61" t="s">
+        <v>334</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>207</v>
@@ -6886,23 +6894,23 @@
       <c r="M10" s="34"/>
       <c r="N10" s="34"/>
       <c r="O10" s="46"/>
-      <c r="P10" s="52" t="s">
+      <c r="P10" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="Q10" s="49" t="s">
+      <c r="Q10" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="S10" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="T10" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="U10" s="48" t="s">
         <v>228</v>
-      </c>
-      <c r="R10" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="S10" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="T10" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="U10" s="49" t="s">
-        <v>229</v>
       </c>
       <c r="X10" s="33"/>
       <c r="Y10" s="38"/>
@@ -6925,16 +6933,16 @@
       </c>
       <c r="F11" s="46"/>
       <c r="G11" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" s="56">
+        <v>231</v>
+      </c>
+      <c r="H11" s="55">
         <v>9</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="J11" s="39" t="s">
-        <v>232</v>
+      <c r="J11" s="61" t="s">
+        <v>335</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>207</v>
@@ -6945,11 +6953,11 @@
       <c r="M11" s="34"/>
       <c r="N11" s="34"/>
       <c r="O11" s="46"/>
-      <c r="P11" s="52" t="s">
+      <c r="P11" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q11" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R11" s="43" t="s">
         <v>210</v>
@@ -6958,10 +6966,10 @@
         <v>219</v>
       </c>
       <c r="T11" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="U11" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X11" s="33" t="s">
         <v>205</v>
@@ -6985,19 +6993,19 @@
         <v>219</v>
       </c>
       <c r="F12" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="H12" s="56">
+        <v>253</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="H12" s="55">
         <v>10</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="J12" s="39" t="s">
-        <v>234</v>
+      <c r="J12" s="61" t="s">
+        <v>232</v>
       </c>
       <c r="K12" s="40" t="s">
         <v>207</v>
@@ -7008,11 +7016,11 @@
       <c r="M12" s="34"/>
       <c r="N12" s="34"/>
       <c r="O12" s="46"/>
-      <c r="P12" s="52" t="s">
+      <c r="P12" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q12" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R12" s="43" t="s">
         <v>210</v>
@@ -7021,10 +7029,10 @@
         <v>219</v>
       </c>
       <c r="T12" s="45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="U12" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X12" s="33"/>
       <c r="Y12" s="38"/>
@@ -7046,19 +7054,19 @@
         <v>219</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="56">
+        <v>253</v>
+      </c>
+      <c r="G13" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="55">
         <v>11</v>
       </c>
-      <c r="I13" s="56" t="s">
+      <c r="I13" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J13" s="39" t="s">
-        <v>237</v>
+      <c r="J13" s="61" t="s">
+        <v>336</v>
       </c>
       <c r="K13" s="40" t="s">
         <v>207</v>
@@ -7069,11 +7077,11 @@
       <c r="M13" s="34"/>
       <c r="N13" s="34"/>
       <c r="O13" s="46"/>
-      <c r="P13" s="52" t="s">
+      <c r="P13" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q13" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R13" s="43" t="s">
         <v>210</v>
@@ -7082,10 +7090,10 @@
         <v>219</v>
       </c>
       <c r="T13" s="45" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="U13" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X13" s="33" t="s">
         <v>204</v>
@@ -7109,17 +7117,17 @@
         <v>215</v>
       </c>
       <c r="F14" s="46"/>
-      <c r="G14" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="H14" s="56">
+      <c r="G14" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="55">
         <v>12</v>
       </c>
-      <c r="I14" s="56" t="s">
+      <c r="I14" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J14" s="39" t="s">
-        <v>317</v>
+      <c r="J14" s="61" t="s">
+        <v>337</v>
       </c>
       <c r="K14" s="40" t="s">
         <v>207</v>
@@ -7132,25 +7140,25 @@
         <v>118</v>
       </c>
       <c r="O14" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="P14" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="P14" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="Q14" s="49" t="s">
+      <c r="Q14" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="S14" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="U14" s="48" t="s">
         <v>228</v>
-      </c>
-      <c r="R14" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="S14" s="49" t="s">
-        <v>219</v>
-      </c>
-      <c r="T14" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="U14" s="49" t="s">
-        <v>229</v>
       </c>
       <c r="X14" s="33"/>
       <c r="Y14" s="38"/>
@@ -7172,17 +7180,17 @@
         <v>215</v>
       </c>
       <c r="F15" s="46"/>
-      <c r="G15" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="H15" s="56">
+      <c r="G15" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="H15" s="55">
         <v>13</v>
       </c>
-      <c r="I15" s="56" t="s">
+      <c r="I15" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>227</v>
+      <c r="J15" s="61" t="s">
+        <v>338</v>
       </c>
       <c r="K15" s="40" t="s">
         <v>208</v>
@@ -7195,25 +7203,25 @@
         <v>118</v>
       </c>
       <c r="O15" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="P15" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="P15" s="51" t="s">
         <v>208</v>
       </c>
       <c r="Q15" s="44">
         <v>6</v>
       </c>
       <c r="R15" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S15" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="U15" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X15" s="33" t="s">
         <v>202</v>
@@ -7231,21 +7239,21 @@
         <v>219</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="46"/>
-      <c r="G16" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="H16" s="56">
+      <c r="G16" s="59" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="55">
         <v>14</v>
       </c>
-      <c r="I16" s="56" t="s">
+      <c r="I16" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="39" t="s">
-        <v>240</v>
+      <c r="J16" s="61" t="s">
+        <v>340</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>208</v>
@@ -7258,25 +7266,25 @@
         <v>120</v>
       </c>
       <c r="O16" s="46" t="s">
-        <v>298</v>
-      </c>
-      <c r="P16" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="P16" s="51" t="s">
         <v>208</v>
       </c>
       <c r="Q16" s="44">
         <v>6</v>
       </c>
       <c r="R16" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S16" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="U16" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X16" s="33"/>
       <c r="Y16" s="38"/>
@@ -7292,23 +7300,23 @@
         <v>219</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="46" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="H17" s="56">
+        <v>300</v>
+      </c>
+      <c r="H17" s="55">
         <v>15</v>
       </c>
-      <c r="I17" s="56" t="s">
+      <c r="I17" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="J17" s="39" t="s">
-        <v>241</v>
+      <c r="J17" s="61" t="s">
+        <v>237</v>
       </c>
       <c r="K17" s="40" t="s">
         <v>207</v>
@@ -7319,11 +7327,11 @@
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
       <c r="O17" s="46"/>
-      <c r="P17" s="52" t="s">
+      <c r="P17" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q17" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R17" s="43" t="s">
         <v>210</v>
@@ -7332,10 +7340,10 @@
         <v>219</v>
       </c>
       <c r="T17" s="45" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="U17" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X17" s="33"/>
       <c r="Y17" s="38"/>
@@ -7351,23 +7359,23 @@
         <v>219</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="46" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G18" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="H18" s="56">
+        <v>239</v>
+      </c>
+      <c r="H18" s="55">
         <v>16</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="J18" s="39" t="s">
-        <v>350</v>
+      <c r="J18" s="61" t="s">
+        <v>341</v>
       </c>
       <c r="K18" s="40" t="s">
         <v>207</v>
@@ -7378,13 +7386,13 @@
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
       <c r="O18" s="46" t="s">
-        <v>351</v>
-      </c>
-      <c r="P18" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="P18" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q18" s="44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R18" s="43" t="s">
         <v>210</v>
@@ -7393,10 +7401,10 @@
         <v>219</v>
       </c>
       <c r="T18" s="45" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="U18" s="44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X18" s="33" t="s">
         <v>201</v>
@@ -7414,23 +7422,23 @@
         <v>219</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="E19" s="37" t="s">
         <v>215</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="38" t="s">
-        <v>311</v>
-      </c>
-      <c r="H19" s="56">
+        <v>301</v>
+      </c>
+      <c r="H19" s="55">
         <v>17</v>
       </c>
-      <c r="I19" s="56" t="s">
+      <c r="I19" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J19" s="39" t="s">
-        <v>244</v>
+      <c r="J19" s="61" t="s">
+        <v>342</v>
       </c>
       <c r="K19" s="40" t="s">
         <v>208</v>
@@ -7441,31 +7449,31 @@
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
       <c r="O19" s="46" t="s">
-        <v>294</v>
-      </c>
-      <c r="P19" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="P19" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="Q19" s="48" t="s">
+      <c r="Q19" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="R19" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="S19" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="T19" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="U19" s="47" t="s">
         <v>228</v>
-      </c>
-      <c r="R19" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="S19" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="T19" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="U19" s="48" t="s">
-        <v>229</v>
       </c>
       <c r="X19" s="33" t="s">
         <v>201</v>
       </c>
       <c r="Y19" s="38" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -7479,23 +7487,23 @@
         <v>219</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="F20" s="46"/>
-      <c r="G20" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="H20" s="56">
+      <c r="G20" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="H20" s="55">
         <v>18</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="J20" s="39" t="s">
-        <v>248</v>
+      <c r="J20" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="K20" s="40" t="s">
         <v>208</v>
@@ -7508,25 +7516,25 @@
         <v>140</v>
       </c>
       <c r="O20" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="P20" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="P20" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q20" s="44">
         <v>6</v>
       </c>
       <c r="R20" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S20" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="U20" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X20" s="33" t="s">
         <v>205</v>
@@ -7544,23 +7552,23 @@
         <v>219</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="F21" s="46"/>
-      <c r="G21" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="H21" s="56">
+      <c r="G21" s="59" t="s">
+        <v>243</v>
+      </c>
+      <c r="H21" s="55">
         <v>19</v>
       </c>
-      <c r="I21" s="56" t="s">
+      <c r="I21" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J21" s="39" t="s">
-        <v>250</v>
+      <c r="J21" s="61" t="s">
+        <v>244</v>
       </c>
       <c r="K21" s="40" t="s">
         <v>208</v>
@@ -7573,25 +7581,25 @@
         <v>108</v>
       </c>
       <c r="O21" s="46" t="s">
-        <v>296</v>
-      </c>
-      <c r="P21" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="P21" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q21" s="44">
         <v>6</v>
       </c>
       <c r="R21" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S21" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T21" s="45" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="U21" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X21" s="33" t="s">
         <v>201</v>
@@ -7609,21 +7617,21 @@
         <v>219</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="46"/>
-      <c r="G22" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="56">
+      <c r="G22" s="59" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="55">
         <v>20</v>
       </c>
-      <c r="I22" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>318</v>
+      <c r="I22" s="55" t="s">
+        <v>306</v>
+      </c>
+      <c r="J22" s="61" t="s">
+        <v>345</v>
       </c>
       <c r="K22" s="40" t="s">
         <v>208</v>
@@ -7635,10 +7643,10 @@
         <v>96</v>
       </c>
       <c r="N22" s="34"/>
-      <c r="O22" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="P22" s="52" t="s">
+      <c r="O22" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="P22" s="51" t="s">
         <v>208</v>
       </c>
       <c r="Q22" s="44">
@@ -7651,7 +7659,7 @@
         <v>213</v>
       </c>
       <c r="T22" s="45" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="U22" s="44" t="s">
         <v>214</v>
@@ -7670,21 +7678,21 @@
         <v>219</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="46"/>
-      <c r="G23" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="H23" s="56">
+      <c r="G23" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" s="55">
         <v>21</v>
       </c>
-      <c r="I23" s="56" t="s">
+      <c r="I23" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J23" s="39" t="s">
-        <v>246</v>
+      <c r="J23" s="61" t="s">
+        <v>241</v>
       </c>
       <c r="K23" s="40" t="s">
         <v>208</v>
@@ -7697,25 +7705,25 @@
         <v>103</v>
       </c>
       <c r="O23" s="46" t="s">
-        <v>304</v>
-      </c>
-      <c r="P23" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="P23" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q23" s="44">
         <v>6</v>
       </c>
       <c r="R23" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S23" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="U23" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X23" s="33" t="s">
         <v>205</v>
@@ -7733,21 +7741,21 @@
         <v>219</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="46"/>
-      <c r="G24" s="60" t="s">
-        <v>251</v>
-      </c>
-      <c r="H24" s="56">
+      <c r="G24" s="59" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24" s="55">
         <v>22</v>
       </c>
-      <c r="I24" s="56" t="s">
+      <c r="I24" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J24" s="39" t="s">
-        <v>252</v>
+      <c r="J24" s="61" t="s">
+        <v>346</v>
       </c>
       <c r="K24" s="40" t="s">
         <v>208</v>
@@ -7760,25 +7768,25 @@
         <v>143</v>
       </c>
       <c r="O24" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="P24" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="P24" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q24" s="44">
         <v>6</v>
       </c>
       <c r="R24" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S24" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T24" s="45" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="U24" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X24" s="33" t="s">
         <v>203</v>
@@ -7796,21 +7804,21 @@
         <v>219</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="46"/>
-      <c r="G25" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="H25" s="56">
+      <c r="G25" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="55">
         <v>23</v>
       </c>
-      <c r="I25" s="56" t="s">
+      <c r="I25" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J25" s="39" t="s">
-        <v>320</v>
+      <c r="J25" s="61" t="s">
+        <v>348</v>
       </c>
       <c r="K25" s="40" t="s">
         <v>208</v>
@@ -7823,25 +7831,25 @@
         <v>139</v>
       </c>
       <c r="O25" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="P25" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="P25" s="51" t="s">
         <v>208</v>
       </c>
       <c r="Q25" s="44">
         <v>6</v>
       </c>
       <c r="R25" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S25" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T25" s="45" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="U25" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X25" s="33"/>
       <c r="Y25" s="38"/>
@@ -7857,23 +7865,23 @@
         <v>219</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="38" t="s">
-        <v>312</v>
-      </c>
-      <c r="H26" s="56">
+        <v>302</v>
+      </c>
+      <c r="H26" s="55">
         <v>24</v>
       </c>
-      <c r="I26" s="56" t="s">
+      <c r="I26" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J26" s="39" t="s">
-        <v>253</v>
+      <c r="J26" s="61" t="s">
+        <v>349</v>
       </c>
       <c r="K26" s="40" t="s">
         <v>208</v>
@@ -7886,25 +7894,25 @@
         <v>140</v>
       </c>
       <c r="O26" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="P26" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="P26" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q26" s="44">
         <v>6</v>
       </c>
       <c r="R26" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S26" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T26" s="45" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="U26" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X26" s="33" t="s">
         <v>201</v>
@@ -7926,17 +7934,17 @@
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="46"/>
-      <c r="G27" s="60" t="s">
-        <v>319</v>
-      </c>
-      <c r="H27" s="56">
+      <c r="G27" s="59" t="s">
+        <v>305</v>
+      </c>
+      <c r="H27" s="55">
         <v>25</v>
       </c>
-      <c r="I27" s="56" t="s">
+      <c r="I27" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J27" s="39" t="s">
-        <v>273</v>
+      <c r="J27" s="61" t="s">
+        <v>263</v>
       </c>
       <c r="K27" s="40" t="s">
         <v>208</v>
@@ -7949,9 +7957,9 @@
       </c>
       <c r="N27" s="34"/>
       <c r="O27" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="P27" s="52" t="s">
+        <v>267</v>
+      </c>
+      <c r="P27" s="51" t="s">
         <v>208</v>
       </c>
       <c r="Q27" s="44">
@@ -7964,7 +7972,7 @@
         <v>213</v>
       </c>
       <c r="T27" s="45" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="U27" s="44" t="s">
         <v>214</v>
@@ -7988,16 +7996,16 @@
       <c r="E28" s="37"/>
       <c r="F28" s="46"/>
       <c r="G28" s="38" t="s">
-        <v>329</v>
-      </c>
-      <c r="H28" s="56">
+        <v>314</v>
+      </c>
+      <c r="H28" s="55">
         <v>26</v>
       </c>
-      <c r="I28" s="56" t="s">
+      <c r="I28" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J28" s="39" t="s">
-        <v>254</v>
+      <c r="J28" s="61" t="s">
+        <v>350</v>
       </c>
       <c r="K28" s="40" t="s">
         <v>207</v>
@@ -8008,25 +8016,25 @@
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
       <c r="O28" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="P28" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="P28" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="Q28" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="R28" s="51" t="s">
+      <c r="Q28" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="R28" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="S28" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="T28" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="U28" s="49" t="s">
-        <v>330</v>
+      <c r="S28" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="T28" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="U28" s="48" t="s">
+        <v>315</v>
       </c>
       <c r="X28" s="33" t="s">
         <v>202</v>
@@ -8048,17 +8056,17 @@
       </c>
       <c r="E29" s="37"/>
       <c r="F29" s="46"/>
-      <c r="G29" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="H29" s="56">
+      <c r="G29" s="59" t="s">
+        <v>289</v>
+      </c>
+      <c r="H29" s="55">
         <v>27</v>
       </c>
-      <c r="I29" s="56" t="s">
+      <c r="I29" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J29" s="39" t="s">
-        <v>300</v>
+      <c r="J29" s="61" t="s">
+        <v>290</v>
       </c>
       <c r="K29" s="40" t="s">
         <v>208</v>
@@ -8071,9 +8079,9 @@
         <v>120</v>
       </c>
       <c r="O29" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="P29" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="P29" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q29" s="44">
@@ -8083,13 +8091,13 @@
         <v>212</v>
       </c>
       <c r="S29" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="U29" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X29" s="33"/>
       <c r="Y29" s="38"/>
@@ -8110,16 +8118,16 @@
       <c r="E30" s="37"/>
       <c r="F30" s="46"/>
       <c r="G30" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="H30" s="56">
+        <v>246</v>
+      </c>
+      <c r="H30" s="55">
         <v>28</v>
       </c>
-      <c r="I30" s="57" t="s">
+      <c r="I30" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="J30" s="39" t="s">
-        <v>257</v>
+      <c r="J30" s="61" t="s">
+        <v>248</v>
       </c>
       <c r="K30" s="40" t="s">
         <v>208</v>
@@ -8128,9 +8136,9 @@
       <c r="M30" s="34"/>
       <c r="N30" s="34"/>
       <c r="O30" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="P30" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="P30" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q30" s="44"/>
@@ -8156,17 +8164,17 @@
       </c>
       <c r="E31" s="37"/>
       <c r="F31" s="46"/>
-      <c r="G31" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="56">
+      <c r="G31" s="59" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="55">
         <v>29</v>
       </c>
-      <c r="I31" s="56" t="s">
+      <c r="I31" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="J31" s="39" t="s">
-        <v>258</v>
+      <c r="J31" s="61" t="s">
+        <v>249</v>
       </c>
       <c r="K31" s="40" t="s">
         <v>208</v>
@@ -8179,25 +8187,25 @@
         <v>140</v>
       </c>
       <c r="O31" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="P31" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="P31" s="51" t="s">
         <v>207</v>
       </c>
       <c r="Q31" s="44">
         <v>6</v>
       </c>
       <c r="R31" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S31" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T31" s="45" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="U31" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X31" s="33" t="s">
         <v>201</v>
@@ -8211,14 +8219,16 @@
       <c r="D32" s="36"/>
       <c r="E32" s="37"/>
       <c r="F32" s="46"/>
-      <c r="G32" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="H32" s="56">
+      <c r="G32" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="H32" s="55">
         <v>30</v>
       </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="39"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="61" t="s">
+        <v>352</v>
+      </c>
       <c r="K32" s="40"/>
       <c r="L32" s="33" t="s">
         <v>84</v>
@@ -8228,21 +8238,21 @@
         <v>119</v>
       </c>
       <c r="O32" s="46"/>
-      <c r="P32" s="52"/>
+      <c r="P32" s="51"/>
       <c r="Q32" s="44">
         <v>6</v>
       </c>
       <c r="R32" s="43" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="S32" s="44" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="T32" s="45" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="U32" s="44" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="X32" s="33"/>
       <c r="Y32" s="38"/>
@@ -8255,7 +8265,7 @@
       <c r="E33" s="37"/>
       <c r="F33" s="36"/>
       <c r="G33" s="38"/>
-      <c r="H33" s="56"/>
+      <c r="H33" s="61"/>
       <c r="I33" s="38"/>
       <c r="J33" s="39"/>
       <c r="K33" s="40"/>
@@ -8263,7 +8273,7 @@
       <c r="M33" s="34"/>
       <c r="N33" s="34"/>
       <c r="O33" s="41"/>
-      <c r="P33" s="52"/>
+      <c r="P33" s="51"/>
       <c r="Q33" s="41"/>
       <c r="R33" s="43"/>
       <c r="S33" s="44"/>
@@ -8280,7 +8290,7 @@
       <c r="E34" s="37"/>
       <c r="F34" s="36"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="61"/>
       <c r="I34" s="33"/>
       <c r="J34" s="39"/>
       <c r="K34" s="40"/>
@@ -8288,7 +8298,7 @@
       <c r="M34" s="34"/>
       <c r="N34" s="34"/>
       <c r="O34" s="41"/>
-      <c r="P34" s="52"/>
+      <c r="P34" s="51"/>
       <c r="Q34" s="41"/>
       <c r="R34" s="43"/>
       <c r="S34" s="44"/>
@@ -8305,7 +8315,7 @@
       <c r="E35" s="37"/>
       <c r="F35" s="36"/>
       <c r="G35" s="38"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="61"/>
       <c r="I35" s="33"/>
       <c r="J35" s="39"/>
       <c r="K35" s="40"/>
@@ -8313,7 +8323,7 @@
       <c r="M35" s="34"/>
       <c r="N35" s="34"/>
       <c r="O35" s="41"/>
-      <c r="P35" s="52"/>
+      <c r="P35" s="51"/>
       <c r="Q35" s="41"/>
       <c r="R35" s="43"/>
       <c r="S35" s="44"/>
@@ -8338,7 +8348,7 @@
       <c r="M36" s="34"/>
       <c r="N36" s="34"/>
       <c r="O36" s="41"/>
-      <c r="P36" s="52"/>
+      <c r="P36" s="51"/>
       <c r="Q36" s="41"/>
       <c r="R36" s="43"/>
       <c r="S36" s="44"/>
@@ -8355,7 +8365,7 @@
       <c r="E37" s="37"/>
       <c r="F37" s="36"/>
       <c r="G37" s="38"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="61"/>
       <c r="I37" s="33"/>
       <c r="J37" s="39"/>
       <c r="K37" s="40"/>
@@ -8363,7 +8373,7 @@
       <c r="M37" s="34"/>
       <c r="N37" s="34"/>
       <c r="O37" s="41"/>
-      <c r="P37" s="52"/>
+      <c r="P37" s="51"/>
       <c r="Q37" s="41"/>
       <c r="R37" s="43"/>
       <c r="S37" s="44"/>
@@ -8380,7 +8390,7 @@
       <c r="E38" s="37"/>
       <c r="F38" s="36"/>
       <c r="G38" s="38"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="61"/>
       <c r="I38" s="33"/>
       <c r="J38" s="39"/>
       <c r="K38" s="40"/>
@@ -8388,7 +8398,7 @@
       <c r="M38" s="34"/>
       <c r="N38" s="34"/>
       <c r="O38" s="41"/>
-      <c r="P38" s="52"/>
+      <c r="P38" s="51"/>
       <c r="Q38" s="41"/>
       <c r="R38" s="43"/>
       <c r="S38" s="44"/>
@@ -8413,7 +8423,7 @@
       <c r="M39" s="34"/>
       <c r="N39" s="34"/>
       <c r="O39" s="41"/>
-      <c r="P39" s="52"/>
+      <c r="P39" s="51"/>
       <c r="Q39" s="41"/>
       <c r="R39" s="43"/>
       <c r="S39" s="44"/>
@@ -8438,7 +8448,7 @@
       <c r="M40" s="34"/>
       <c r="N40" s="34"/>
       <c r="O40" s="41"/>
-      <c r="P40" s="52"/>
+      <c r="P40" s="51"/>
       <c r="Q40" s="41"/>
       <c r="R40" s="43"/>
       <c r="S40" s="44"/>
@@ -8463,7 +8473,7 @@
       <c r="M41" s="34"/>
       <c r="N41" s="34"/>
       <c r="O41" s="41"/>
-      <c r="P41" s="52"/>
+      <c r="P41" s="51"/>
       <c r="Q41" s="41"/>
       <c r="R41" s="43"/>
       <c r="S41" s="44"/>
@@ -8473,104 +8483,104 @@
       <c r="Y41" s="38"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="66"/>
-      <c r="C42" s="69"/>
+      <c r="A42" s="90"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="94"/>
       <c r="D42" s="36"/>
       <c r="E42" s="37"/>
       <c r="F42" s="36"/>
-      <c r="G42" s="96"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="61"/>
-      <c r="M42" s="93"/>
-      <c r="N42" s="93"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="75"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="100"/>
       <c r="Q42" s="41"/>
       <c r="R42" s="43"/>
       <c r="S42" s="44"/>
       <c r="T42" s="45"/>
       <c r="U42" s="44"/>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="61"/>
+      <c r="X42" s="67"/>
+      <c r="Y42" s="67"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="70"/>
+      <c r="A43" s="91"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="36"/>
       <c r="E43" s="37"/>
       <c r="F43" s="36"/>
-      <c r="G43" s="96"/>
+      <c r="G43" s="68"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="73"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="94"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="76"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="98"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="101"/>
       <c r="Q43" s="41"/>
       <c r="R43" s="43"/>
       <c r="S43" s="44"/>
       <c r="T43" s="45"/>
       <c r="U43" s="44"/>
-      <c r="X43" s="61"/>
-      <c r="Y43" s="61"/>
+      <c r="X43" s="67"/>
+      <c r="Y43" s="67"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="70"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="36"/>
       <c r="E44" s="37"/>
       <c r="F44" s="36"/>
-      <c r="G44" s="96"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="73"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="76"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="65"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="101"/>
       <c r="Q44" s="41"/>
       <c r="R44" s="43"/>
       <c r="S44" s="44"/>
       <c r="T44" s="45"/>
       <c r="U44" s="44"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="61"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="67"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="71"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="96"/>
+      <c r="G45" s="68"/>
       <c r="H45" s="39"/>
-      <c r="I45" s="96"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="77"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="102"/>
       <c r="Q45" s="41"/>
       <c r="R45" s="43"/>
       <c r="S45" s="44"/>
       <c r="T45" s="45"/>
       <c r="U45" s="44"/>
-      <c r="X45" s="61"/>
-      <c r="Y45" s="61"/>
+      <c r="X45" s="67"/>
+      <c r="Y45" s="67"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
@@ -8588,7 +8598,7 @@
       <c r="M46" s="34"/>
       <c r="N46" s="34"/>
       <c r="O46" s="41"/>
-      <c r="P46" s="52"/>
+      <c r="P46" s="51"/>
       <c r="Q46" s="44"/>
       <c r="R46" s="43"/>
       <c r="S46" s="44"/>
@@ -9499,6 +9509,29 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="Y42:Y45"/>
+    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="X42:X45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="P42:P45"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M42:M45"/>
     <mergeCell ref="N42:N45"/>
@@ -9510,29 +9543,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="Y42:Y45"/>
-    <mergeCell ref="O42:O45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="X42:X45"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="P42:P45"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46">

--- a/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ARCHIVOS PLANETA. FERNANDA\ESCALETAS\ESCALETA_MA_09_01_CO\ESCALETA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado09\guion01\ESCALETA_MA_09_01_CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -891,9 +891,6 @@
   </si>
   <si>
     <t>Adaptar y complementar el contenido del recurso del autor MA_09_01_CO_REC120.  Axioma de completitud.</t>
-  </si>
-  <si>
-    <t>Proyecto: estudio del número π</t>
   </si>
   <si>
     <t>Interactivo que presenta aspectos del número π para visualizar y formular situaciones de formas no convencionales</t>
@@ -1163,6 +1160,9 @@
   </si>
   <si>
     <t>Motor que incluye actividades de respuesta abierta del tema Los números reales</t>
+  </si>
+  <si>
+    <t>Competencias: estudio del número π</t>
   </si>
 </sst>
 </file>
@@ -1563,56 +1563,56 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1644,47 +1644,47 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6278,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35:J38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -6291,14 +6291,14 @@
     <col min="5" max="5" width="22.85546875" style="32" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" style="32" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="32" customWidth="1"/>
-    <col min="8" max="8" width="9" style="32" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="86.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="9" style="32" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="32" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="86.140625" style="32" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="32" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="32" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="42" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" style="42" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="32" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" style="52" customWidth="1"/>
     <col min="17" max="17" width="8.42578125" style="32" customWidth="1"/>
     <col min="18" max="18" width="6.7109375" style="32" customWidth="1"/>
@@ -6315,62 +6315,62 @@
       <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="82" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="F1" s="87" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="G1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="99" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="99" t="s">
         <v>326</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>327</v>
       </c>
       <c r="J1" s="81" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="80" t="s">
-        <v>307</v>
-      </c>
-      <c r="L1" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="L1" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="73"/>
-      <c r="O1" s="72" t="s">
+      <c r="N1" s="102"/>
+      <c r="O1" s="101" t="s">
         <v>199</v>
       </c>
-      <c r="P1" s="62" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q1" s="74" t="s">
+      <c r="P1" s="92" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="R1" s="76" t="s">
+      <c r="R1" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="89" t="s">
         <v>125</v>
       </c>
       <c r="X1" s="33" t="s">
@@ -6382,30 +6382,30 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="79"/>
-      <c r="B2" s="78"/>
+      <c r="B2" s="69"/>
       <c r="C2" s="82"/>
       <c r="D2" s="84"/>
       <c r="E2" s="86"/>
       <c r="F2" s="88"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
       <c r="J2" s="81"/>
       <c r="K2" s="80"/>
-      <c r="L2" s="67"/>
+      <c r="L2" s="62"/>
       <c r="M2" s="34" t="s">
         <v>126</v>
       </c>
       <c r="N2" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="76"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="74"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="89"/>
       <c r="X2" s="33" t="s">
         <v>206</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="E3" s="37"/>
       <c r="F3" s="54"/>
       <c r="G3" s="59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H3" s="55">
         <v>1</v>
@@ -6438,7 +6438,7 @@
         <v>207</v>
       </c>
       <c r="J3" s="61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>208</v>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="N3" s="34"/>
       <c r="O3" s="58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P3" s="51" t="s">
         <v>207</v>
@@ -6516,7 +6516,7 @@
         <v>103</v>
       </c>
       <c r="O4" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P4" s="51" t="s">
         <v>207</v>
@@ -6531,7 +6531,7 @@
         <v>270</v>
       </c>
       <c r="T4" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U4" s="44" t="s">
         <v>272</v>
@@ -6661,7 +6661,7 @@
         <v>213</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U6" s="44" t="s">
         <v>214</v>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="59" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H7" s="55">
         <v>5</v>
@@ -6700,7 +6700,7 @@
         <v>207</v>
       </c>
       <c r="J7" s="61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K7" s="40" t="s">
         <v>208</v>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="F8" s="46"/>
       <c r="G8" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H8" s="55">
         <v>6</v>
@@ -6876,7 +6876,7 @@
       <c r="E10" s="37"/>
       <c r="F10" s="46"/>
       <c r="G10" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H10" s="55">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         <v>208</v>
       </c>
       <c r="J10" s="61" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>207</v>
@@ -6907,7 +6907,7 @@
         <v>219</v>
       </c>
       <c r="T10" s="49" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U10" s="48" t="s">
         <v>228</v>
@@ -6942,7 +6942,7 @@
         <v>208</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K11" s="40" t="s">
         <v>207</v>
@@ -7066,7 +7066,7 @@
         <v>208</v>
       </c>
       <c r="J13" s="61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K13" s="40" t="s">
         <v>207</v>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="F14" s="46"/>
       <c r="G14" s="60" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H14" s="55">
         <v>12</v>
@@ -7127,7 +7127,7 @@
         <v>208</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K14" s="40" t="s">
         <v>207</v>
@@ -7140,7 +7140,7 @@
         <v>118</v>
       </c>
       <c r="O14" s="46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P14" s="51" t="s">
         <v>207</v>
@@ -7155,7 +7155,7 @@
         <v>219</v>
       </c>
       <c r="T14" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="U14" s="48" t="s">
         <v>228</v>
@@ -7181,7 +7181,7 @@
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H15" s="55">
         <v>13</v>
@@ -7190,7 +7190,7 @@
         <v>208</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K15" s="40" t="s">
         <v>208</v>
@@ -7218,7 +7218,7 @@
         <v>270</v>
       </c>
       <c r="T15" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U15" s="44" t="s">
         <v>272</v>
@@ -7253,7 +7253,7 @@
         <v>207</v>
       </c>
       <c r="J16" s="61" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>208</v>
@@ -7281,7 +7281,7 @@
         <v>270</v>
       </c>
       <c r="T16" s="45" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U16" s="44" t="s">
         <v>272</v>
@@ -7307,7 +7307,7 @@
         <v>255</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H17" s="55">
         <v>15</v>
@@ -7375,7 +7375,7 @@
         <v>208</v>
       </c>
       <c r="J18" s="61" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K18" s="40" t="s">
         <v>207</v>
@@ -7386,7 +7386,7 @@
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
       <c r="O18" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P18" s="51" t="s">
         <v>207</v>
@@ -7429,7 +7429,7 @@
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" s="55">
         <v>17</v>
@@ -7438,7 +7438,7 @@
         <v>208</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K19" s="40" t="s">
         <v>208</v>
@@ -7464,7 +7464,7 @@
         <v>219</v>
       </c>
       <c r="T19" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U19" s="47" t="s">
         <v>228</v>
@@ -7503,7 +7503,7 @@
         <v>208</v>
       </c>
       <c r="J20" s="61" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K20" s="40" t="s">
         <v>208</v>
@@ -7531,7 +7531,7 @@
         <v>270</v>
       </c>
       <c r="T20" s="45" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="U20" s="44" t="s">
         <v>272</v>
@@ -7622,16 +7622,16 @@
       <c r="E22" s="37"/>
       <c r="F22" s="46"/>
       <c r="G22" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H22" s="55">
         <v>20</v>
       </c>
       <c r="I22" s="55" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J22" s="61" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="K22" s="40" t="s">
         <v>208</v>
@@ -7644,7 +7644,7 @@
       </c>
       <c r="N22" s="34"/>
       <c r="O22" s="57" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P22" s="51" t="s">
         <v>208</v>
@@ -7705,7 +7705,7 @@
         <v>103</v>
       </c>
       <c r="O23" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P23" s="51" t="s">
         <v>207</v>
@@ -7720,7 +7720,7 @@
         <v>270</v>
       </c>
       <c r="T23" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U23" s="44" t="s">
         <v>272</v>
@@ -7755,7 +7755,7 @@
         <v>208</v>
       </c>
       <c r="J24" s="61" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K24" s="40" t="s">
         <v>208</v>
@@ -7768,7 +7768,7 @@
         <v>143</v>
       </c>
       <c r="O24" s="46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P24" s="51" t="s">
         <v>207</v>
@@ -7783,7 +7783,7 @@
         <v>270</v>
       </c>
       <c r="T24" s="45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U24" s="44" t="s">
         <v>272</v>
@@ -7809,7 +7809,7 @@
       <c r="E25" s="37"/>
       <c r="F25" s="46"/>
       <c r="G25" s="59" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H25" s="55">
         <v>23</v>
@@ -7818,7 +7818,7 @@
         <v>208</v>
       </c>
       <c r="J25" s="61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K25" s="40" t="s">
         <v>208</v>
@@ -7831,7 +7831,7 @@
         <v>139</v>
       </c>
       <c r="O25" s="46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P25" s="51" t="s">
         <v>208</v>
@@ -7846,7 +7846,7 @@
         <v>270</v>
       </c>
       <c r="T25" s="45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U25" s="44" t="s">
         <v>272</v>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="F26" s="46"/>
       <c r="G26" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H26" s="55">
         <v>24</v>
@@ -7881,7 +7881,7 @@
         <v>208</v>
       </c>
       <c r="J26" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K26" s="40" t="s">
         <v>208</v>
@@ -7909,7 +7909,7 @@
         <v>270</v>
       </c>
       <c r="T26" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U26" s="44" t="s">
         <v>272</v>
@@ -7935,7 +7935,7 @@
       <c r="E27" s="37"/>
       <c r="F27" s="46"/>
       <c r="G27" s="59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H27" s="55">
         <v>25</v>
@@ -7996,7 +7996,7 @@
       <c r="E28" s="37"/>
       <c r="F28" s="46"/>
       <c r="G28" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H28" s="55">
         <v>26</v>
@@ -8005,7 +8005,7 @@
         <v>208</v>
       </c>
       <c r="J28" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K28" s="40" t="s">
         <v>207</v>
@@ -8016,7 +8016,7 @@
       <c r="M28" s="34"/>
       <c r="N28" s="34"/>
       <c r="O28" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P28" s="51" t="s">
         <v>207</v>
@@ -8028,13 +8028,13 @@
         <v>210</v>
       </c>
       <c r="S28" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="T28" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="T28" s="49" t="s">
+      <c r="U28" s="48" t="s">
         <v>314</v>
-      </c>
-      <c r="U28" s="48" t="s">
-        <v>315</v>
       </c>
       <c r="X28" s="33" t="s">
         <v>202</v>
@@ -8057,7 +8057,7 @@
       <c r="E29" s="37"/>
       <c r="F29" s="46"/>
       <c r="G29" s="59" t="s">
-        <v>289</v>
+        <v>352</v>
       </c>
       <c r="H29" s="55">
         <v>27</v>
@@ -8066,7 +8066,7 @@
         <v>208</v>
       </c>
       <c r="J29" s="61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K29" s="40" t="s">
         <v>208</v>
@@ -8079,7 +8079,7 @@
         <v>120</v>
       </c>
       <c r="O29" s="46" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P29" s="51" t="s">
         <v>207</v>
@@ -8094,7 +8094,7 @@
         <v>270</v>
       </c>
       <c r="T29" s="45" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="U29" s="44" t="s">
         <v>272</v>
@@ -8220,14 +8220,14 @@
       <c r="E32" s="37"/>
       <c r="F32" s="46"/>
       <c r="G32" s="59" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H32" s="55">
         <v>30</v>
       </c>
       <c r="I32" s="54"/>
       <c r="J32" s="61" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K32" s="40"/>
       <c r="L32" s="33" t="s">
@@ -8483,104 +8483,104 @@
       <c r="Y41" s="38"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="90"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="94"/>
+      <c r="A42" s="64"/>
+      <c r="B42" s="67"/>
+      <c r="C42" s="70"/>
       <c r="D42" s="36"/>
       <c r="E42" s="37"/>
       <c r="F42" s="36"/>
-      <c r="G42" s="68"/>
+      <c r="G42" s="97"/>
       <c r="H42" s="39"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="64"/>
-      <c r="N42" s="64"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="100"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="76"/>
       <c r="Q42" s="41"/>
       <c r="R42" s="43"/>
       <c r="S42" s="44"/>
       <c r="T42" s="45"/>
       <c r="U42" s="44"/>
-      <c r="X42" s="67"/>
-      <c r="Y42" s="67"/>
+      <c r="X42" s="62"/>
+      <c r="Y42" s="62"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="95"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="36"/>
       <c r="E43" s="37"/>
       <c r="F43" s="36"/>
-      <c r="G43" s="68"/>
+      <c r="G43" s="97"/>
       <c r="H43" s="39"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="65"/>
-      <c r="N43" s="65"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="101"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="95"/>
+      <c r="N43" s="95"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="77"/>
       <c r="Q43" s="41"/>
       <c r="R43" s="43"/>
       <c r="S43" s="44"/>
       <c r="T43" s="45"/>
       <c r="U43" s="44"/>
-      <c r="X43" s="67"/>
-      <c r="Y43" s="67"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="62"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="95"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="71"/>
       <c r="D44" s="36"/>
       <c r="E44" s="37"/>
       <c r="F44" s="36"/>
-      <c r="G44" s="68"/>
+      <c r="G44" s="97"/>
       <c r="H44" s="39"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="98"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="101"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="77"/>
       <c r="Q44" s="41"/>
       <c r="R44" s="43"/>
       <c r="S44" s="44"/>
       <c r="T44" s="45"/>
       <c r="U44" s="44"/>
-      <c r="X44" s="67"/>
-      <c r="Y44" s="67"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="62"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="92"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="96"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
       <c r="F45" s="36"/>
-      <c r="G45" s="68"/>
+      <c r="G45" s="97"/>
       <c r="H45" s="39"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="102"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="78"/>
       <c r="Q45" s="41"/>
       <c r="R45" s="43"/>
       <c r="S45" s="44"/>
       <c r="T45" s="45"/>
       <c r="U45" s="44"/>
-      <c r="X45" s="67"/>
-      <c r="Y45" s="67"/>
+      <c r="X45" s="62"/>
+      <c r="Y45" s="62"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
@@ -9509,29 +9509,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="Y42:Y45"/>
-    <mergeCell ref="O42:O45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="X42:X45"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="P42:P45"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="M42:M45"/>
     <mergeCell ref="N42:N45"/>
@@ -9543,6 +9520,29 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="Y42:Y45"/>
+    <mergeCell ref="O42:O45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="X42:X45"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="P42:P45"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A46">

--- a/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion01/ESCALETA_MA_09_01_CO/ESCALETA_MA_09_01_CO.xlsx
@@ -6279,7 +6279,7 @@
   <dimension ref="A1:Y189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
